--- a/notebooks/rcmip-data-submission-template-ar5ir.xlsx
+++ b/notebooks/rcmip-data-submission-template-ar5ir.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D4739-D5BA-F24D-95DE-68BEE69389BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F837C5-4129-E748-ACE9-A74DFB38E067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1225">
   <si>
     <t>Category</t>
   </si>
@@ -2558,9 +2558,6 @@
   </si>
   <si>
     <t>ECS (K)</t>
-  </si>
-  <si>
-    <t>Other configuration descriptions here e.g. HadGEM3 emulation, CMIP6 median emulation etc.</t>
   </si>
   <si>
     <t>https://view.es-doc.org/index.html?renderMethod=id&amp;project=cmip6&amp;id=8ece3924-ccd2-4015-b158-f080ef2e0d4e&amp;version=1</t>
@@ -3777,6 +3774,21 @@
   </si>
   <si>
     <t>CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</t>
+  </si>
+  <si>
+    <t>CMIP6-NorCPM1_r1i1p1f1-CALIB</t>
+  </si>
+  <si>
+    <t>CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</t>
+  </si>
+  <si>
+    <t>CMIP6-NorESM2-LM_r1i1p1f1-CALIB</t>
+  </si>
+  <si>
+    <t>CMIP6-CESM2_r1i1p1f1-CALIB</t>
+  </si>
+  <si>
+    <t>CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</t>
   </si>
 </sst>
 </file>
@@ -4668,7 +4680,7 @@
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="38.25" customHeight="1">
       <c r="A8" s="76" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="3"/>
@@ -4700,7 +4712,7 @@
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="76" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B10" s="76"/>
       <c r="C10" s="3"/>
@@ -4832,13 +4844,13 @@
     </row>
     <row r="22" spans="1:2" ht="27.75" customHeight="1">
       <c r="A22" s="70" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B22" s="72"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="76" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B23" s="76"/>
     </row>
@@ -4848,13 +4860,13 @@
     </row>
     <row r="25" spans="1:2" ht="27.75" customHeight="1">
       <c r="A25" s="70" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B25" s="68"/>
     </row>
     <row r="26" spans="1:2" ht="88" customHeight="1">
       <c r="A26" s="76" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B26" s="76"/>
     </row>
@@ -4897,7 +4909,7 @@
         <v>508</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C33" s="2"/>
     </row>
@@ -4922,7 +4934,7 @@
         <v>626</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="56">
@@ -4930,7 +4942,7 @@
         <v>627</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -5275,13 +5287,13 @@
     <row r="4" spans="1:85" ht="48">
       <c r="A4" s="38"/>
       <c r="B4" s="74" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
@@ -5291,13 +5303,13 @@
     <row r="5" spans="1:85" ht="71">
       <c r="A5" s="38"/>
       <c r="B5" s="74" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E5" s="45">
         <v>1</v>
@@ -5307,13 +5319,13 @@
     <row r="6" spans="1:85" ht="57">
       <c r="A6" s="38"/>
       <c r="B6" s="74" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>1132</v>
       </c>
-      <c r="C6" s="63" t="s">
-        <v>1133</v>
-      </c>
       <c r="D6" s="73" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E6" s="45">
         <v>2</v>
@@ -5326,10 +5338,10 @@
         <v>120</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E7" s="45">
         <v>1</v>
@@ -5342,10 +5354,10 @@
         <v>229</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E8" s="45">
         <v>1</v>
@@ -5358,7 +5370,7 @@
         <v>175</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>176</v>
@@ -5374,7 +5386,7 @@
         <v>146</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D10" s="44" t="s">
         <v>148</v>
@@ -5390,7 +5402,7 @@
         <v>147</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D11" s="44" t="s">
         <v>149</v>
@@ -5409,7 +5421,7 @@
         <v>151</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E12" s="45">
         <v>3</v>
@@ -5425,7 +5437,7 @@
         <v>153</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E13" s="45">
         <v>3</v>
@@ -5441,7 +5453,7 @@
         <v>155</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E14" s="45">
         <v>3</v>
@@ -5454,10 +5466,10 @@
         <v>156</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E15" s="45">
         <v>3</v>
@@ -5470,10 +5482,10 @@
         <v>124</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E16" s="45">
         <v>1</v>
@@ -5486,10 +5498,10 @@
         <v>194</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E17" s="45">
         <v>1</v>
@@ -5502,10 +5514,10 @@
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E18" s="45">
         <v>1</v>
@@ -5521,7 +5533,7 @@
         <v>178</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E19" s="45">
         <v>2</v>
@@ -5537,7 +5549,7 @@
         <v>180</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E20" s="45">
         <v>2</v>
@@ -5550,10 +5562,10 @@
         <v>157</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E21" s="45">
         <v>3</v>
@@ -5566,10 +5578,10 @@
         <v>158</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E22" s="45">
         <v>3</v>
@@ -5582,10 +5594,10 @@
         <v>159</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E23" s="45">
         <v>3</v>
@@ -5598,7 +5610,7 @@
         <v>137</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>138</v>
@@ -5611,13 +5623,13 @@
     <row r="25" spans="1:6" ht="42">
       <c r="A25" s="38"/>
       <c r="B25" s="74" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E25" s="45">
         <v>2</v>
@@ -5630,7 +5642,7 @@
         <v>195</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>216</v>
@@ -5646,7 +5658,7 @@
         <v>200</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>219</v>
@@ -5662,7 +5674,7 @@
         <v>201</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D28" s="44" t="s">
         <v>220</v>
@@ -5726,7 +5738,7 @@
         <v>162</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D32" s="44" t="s">
         <v>172</v>
@@ -5742,7 +5754,7 @@
         <v>125</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D33" s="44" t="s">
         <v>136</v>
@@ -5758,7 +5770,7 @@
         <v>126</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D34" s="44" t="s">
         <v>139</v>
@@ -5774,7 +5786,7 @@
         <v>127</v>
       </c>
       <c r="C35" s="63" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>140</v>
@@ -5790,7 +5802,7 @@
         <v>210</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>225</v>
@@ -5806,7 +5818,7 @@
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>226</v>
@@ -5854,7 +5866,7 @@
         <v>128</v>
       </c>
       <c r="C40" s="63" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D40" s="44" t="s">
         <v>141</v>
@@ -5867,13 +5879,13 @@
     <row r="41" spans="1:6" ht="85">
       <c r="A41" s="38"/>
       <c r="B41" s="74" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E41" s="45">
         <v>2</v>
@@ -5883,13 +5895,13 @@
     <row r="42" spans="1:6" ht="45">
       <c r="A42" s="38"/>
       <c r="B42" s="74" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C42" s="63" t="s">
         <v>1200</v>
       </c>
-      <c r="C42" s="63" t="s">
-        <v>1201</v>
-      </c>
       <c r="D42" s="44" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E42" s="45">
         <v>3</v>
@@ -5899,13 +5911,13 @@
     <row r="43" spans="1:6" ht="14">
       <c r="A43" s="38"/>
       <c r="B43" s="74" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C43" s="63" t="s">
         <v>1190</v>
       </c>
-      <c r="C43" s="63" t="s">
-        <v>1191</v>
-      </c>
       <c r="D43" s="63" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E43" s="45">
         <v>3</v>
@@ -5918,7 +5930,7 @@
         <v>129</v>
       </c>
       <c r="C44" s="63" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D44" s="44" t="s">
         <v>142</v>
@@ -5934,7 +5946,7 @@
         <v>130</v>
       </c>
       <c r="C45" s="63" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D45" s="44" t="s">
         <v>143</v>
@@ -5950,7 +5962,7 @@
         <v>131</v>
       </c>
       <c r="C46" s="63" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D46" s="44" t="s">
         <v>144</v>
@@ -5966,7 +5978,7 @@
         <v>163</v>
       </c>
       <c r="C47" s="63" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D47" s="44" t="s">
         <v>173</v>
@@ -5982,7 +5994,7 @@
         <v>132</v>
       </c>
       <c r="C48" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D48" s="44" t="s">
         <v>145</v>
@@ -5998,7 +6010,7 @@
         <v>164</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>174</v>
@@ -6014,10 +6026,10 @@
         <v>160</v>
       </c>
       <c r="C50" s="63" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D50" s="61" t="s">
         <v>1136</v>
-      </c>
-      <c r="D50" s="61" t="s">
-        <v>1137</v>
       </c>
       <c r="E50" s="45">
         <v>1</v>
@@ -6027,13 +6039,13 @@
     <row r="51" spans="1:6" ht="56">
       <c r="A51" s="38"/>
       <c r="B51" s="74" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C51" s="63" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D51" s="43" t="s">
         <v>1138</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>1139</v>
       </c>
       <c r="E51" s="45">
         <v>2</v>
@@ -6046,7 +6058,7 @@
         <v>165</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>642</v>
@@ -6062,7 +6074,7 @@
         <v>166</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D53" s="43" t="s">
         <v>643</v>
@@ -6078,7 +6090,7 @@
         <v>167</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D54" s="43" t="s">
         <v>644</v>
@@ -6094,7 +6106,7 @@
         <v>168</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>645</v>
@@ -6107,13 +6119,13 @@
     <row r="56" spans="1:6" ht="84">
       <c r="A56" s="38"/>
       <c r="B56" s="74" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E56" s="45">
         <v>3</v>
@@ -6123,13 +6135,13 @@
     <row r="57" spans="1:6" ht="28">
       <c r="A57" s="38"/>
       <c r="B57" s="74" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E57" s="45">
         <v>3</v>
@@ -6139,13 +6151,13 @@
     <row r="58" spans="1:6" ht="14">
       <c r="A58" s="38"/>
       <c r="B58" s="74" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C58" s="63" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D58" s="63" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E58" s="45">
         <v>3</v>
@@ -6158,7 +6170,7 @@
         <v>169</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D59" s="43" t="s">
         <v>646</v>
@@ -6174,7 +6186,7 @@
         <v>170</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D60" s="43" t="s">
         <v>647</v>
@@ -6190,7 +6202,7 @@
         <v>171</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D61" s="43" t="s">
         <v>648</v>
@@ -6206,10 +6218,10 @@
         <v>161</v>
       </c>
       <c r="C62" s="63" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D62" s="61" t="s">
         <v>1147</v>
-      </c>
-      <c r="D62" s="61" t="s">
-        <v>1148</v>
       </c>
       <c r="E62" s="45">
         <v>1</v>
@@ -6219,13 +6231,13 @@
     <row r="63" spans="1:6" ht="48">
       <c r="A63" s="38"/>
       <c r="B63" s="74" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D63" s="73" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E63" s="45">
         <v>1</v>
@@ -6235,13 +6247,13 @@
     <row r="64" spans="1:6" ht="42">
       <c r="A64" s="38"/>
       <c r="B64" s="74" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C64" s="63" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E64" s="45">
         <v>2</v>
@@ -6251,13 +6263,13 @@
     <row r="65" spans="1:6" ht="42">
       <c r="A65" s="38"/>
       <c r="B65" s="74" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C65" s="63" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E65" s="45">
         <v>1</v>
@@ -6267,13 +6279,13 @@
     <row r="66" spans="1:6" ht="28">
       <c r="A66" s="38"/>
       <c r="B66" s="74" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E66" s="45">
         <v>3</v>
@@ -6283,13 +6295,13 @@
     <row r="67" spans="1:6" ht="28">
       <c r="A67" s="38"/>
       <c r="B67" s="74" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E67" s="45">
         <v>3</v>
@@ -6299,13 +6311,13 @@
     <row r="68" spans="1:6" ht="42">
       <c r="A68" s="38"/>
       <c r="B68" s="74" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C68" s="63" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E68" s="45">
         <v>3</v>
@@ -6315,13 +6327,13 @@
     <row r="69" spans="1:6" ht="84">
       <c r="A69" s="38"/>
       <c r="B69" s="74" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E69" s="45">
         <v>3</v>
@@ -6331,13 +6343,13 @@
     <row r="70" spans="1:6" ht="28">
       <c r="A70" s="38"/>
       <c r="B70" s="74" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C70" s="63" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E70" s="45">
         <v>3</v>
@@ -6347,13 +6359,13 @@
     <row r="71" spans="1:6" ht="14">
       <c r="A71" s="38"/>
       <c r="B71" s="74" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C71" s="63" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D71" s="63" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E71" s="45">
         <v>3</v>
@@ -6363,13 +6375,13 @@
     <row r="72" spans="1:6" ht="42">
       <c r="A72" s="38"/>
       <c r="B72" s="74" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C72" s="63" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E72" s="45">
         <v>3</v>
@@ -6379,13 +6391,13 @@
     <row r="73" spans="1:6" ht="28">
       <c r="A73" s="38"/>
       <c r="B73" s="74" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C73" s="63" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E73" s="45">
         <v>3</v>
@@ -6395,13 +6407,13 @@
     <row r="74" spans="1:6" ht="42">
       <c r="A74" s="38"/>
       <c r="B74" s="74" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C74" s="63" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E74" s="45">
         <v>3</v>
@@ -6411,13 +6423,13 @@
     <row r="75" spans="1:6" ht="48">
       <c r="A75" s="38"/>
       <c r="B75" s="74" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D75" s="73" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E75" s="45">
         <v>1</v>
@@ -6427,13 +6439,13 @@
     <row r="76" spans="1:6" ht="28">
       <c r="A76" s="38"/>
       <c r="B76" s="74" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C76" s="63" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E76" s="45">
         <v>3</v>
@@ -6443,13 +6455,13 @@
     <row r="77" spans="1:6" ht="28">
       <c r="A77" s="38"/>
       <c r="B77" s="74" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C77" s="63" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E77" s="45">
         <v>3</v>
@@ -6459,13 +6471,13 @@
     <row r="78" spans="1:6" ht="28">
       <c r="A78" s="38"/>
       <c r="B78" s="74" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C78" s="63" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E78" s="45">
         <v>3</v>
@@ -6475,13 +6487,13 @@
     <row r="79" spans="1:6" ht="28">
       <c r="A79" s="38"/>
       <c r="B79" s="74" t="s">
+        <v>842</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D79" s="43" t="s">
         <v>843</v>
-      </c>
-      <c r="C79" s="63" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>844</v>
       </c>
       <c r="E79" s="45">
         <v>3</v>
@@ -6491,13 +6503,13 @@
     <row r="80" spans="1:6" ht="42">
       <c r="A80" s="38"/>
       <c r="B80" s="74" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C80" s="63" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E80" s="45">
         <v>3</v>
@@ -6507,13 +6519,13 @@
     <row r="81" spans="1:6" ht="42">
       <c r="A81" s="38"/>
       <c r="B81" s="74" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C81" s="63" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E81" s="45">
         <v>3</v>
@@ -6523,13 +6535,13 @@
     <row r="82" spans="1:6" ht="42">
       <c r="A82" s="38"/>
       <c r="B82" s="74" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C82" s="63" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D82" s="43" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E82" s="45">
         <v>3</v>
@@ -6539,13 +6551,13 @@
     <row r="83" spans="1:6" ht="42">
       <c r="A83" s="38"/>
       <c r="B83" s="74" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C83" s="63" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E83" s="45">
         <v>3</v>
@@ -6555,13 +6567,13 @@
     <row r="84" spans="1:6" ht="42">
       <c r="A84" s="38"/>
       <c r="B84" s="74" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C84" s="63" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D84" s="43" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E84" s="45">
         <v>3</v>
@@ -6571,13 +6583,13 @@
     <row r="85" spans="1:6" ht="42">
       <c r="A85" s="38"/>
       <c r="B85" s="74" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C85" s="63" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D85" s="43" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E85" s="45">
         <v>3</v>
@@ -6587,13 +6599,13 @@
     <row r="86" spans="1:6" ht="42">
       <c r="A86" s="38"/>
       <c r="B86" s="74" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C86" s="63" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D86" s="43" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E86" s="45">
         <v>3</v>
@@ -6603,13 +6615,13 @@
     <row r="87" spans="1:6" ht="42">
       <c r="A87" s="38"/>
       <c r="B87" s="74" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C87" s="63" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D87" s="43" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E87" s="45">
         <v>3</v>
@@ -6627,7 +6639,7 @@
     <row r="89" spans="1:6" ht="71" customHeight="1">
       <c r="A89" s="38"/>
       <c r="B89" s="81" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C89" s="82"/>
       <c r="D89" s="82"/>
@@ -7248,13 +7260,13 @@
         <v>370</v>
       </c>
       <c r="C16" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D16" t="s">
         <v>456</v>
       </c>
       <c r="E16" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -7386,13 +7398,13 @@
         <v>370</v>
       </c>
       <c r="C22" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D22" t="s">
         <v>456</v>
       </c>
       <c r="E22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -8266,7 +8278,7 @@
         <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -8283,13 +8295,13 @@
         <v>766</v>
       </c>
       <c r="C61" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D61" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E61" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -8306,13 +8318,13 @@
         <v>766</v>
       </c>
       <c r="C62" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D62" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E62" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -8329,13 +8341,13 @@
         <v>766</v>
       </c>
       <c r="C63" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D63" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E63" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -8352,13 +8364,13 @@
         <v>766</v>
       </c>
       <c r="C64" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D64" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E64" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -8375,13 +8387,13 @@
         <v>766</v>
       </c>
       <c r="C65" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D65" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E65" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -8398,13 +8410,13 @@
         <v>766</v>
       </c>
       <c r="C66" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D66" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E66" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -8421,13 +8433,13 @@
         <v>766</v>
       </c>
       <c r="C67" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D67" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E67" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -8444,13 +8456,13 @@
         <v>766</v>
       </c>
       <c r="C68" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D68" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E68" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -8467,13 +8479,13 @@
         <v>766</v>
       </c>
       <c r="C69" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D69" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E69" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -8490,13 +8502,13 @@
         <v>766</v>
       </c>
       <c r="C70" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D70" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E70" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -8513,13 +8525,13 @@
         <v>766</v>
       </c>
       <c r="C71" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D71" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E71" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -8536,13 +8548,13 @@
         <v>766</v>
       </c>
       <c r="C72" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D72" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E72" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -8559,13 +8571,13 @@
         <v>766</v>
       </c>
       <c r="C73" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D73" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E73" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -8582,13 +8594,13 @@
         <v>766</v>
       </c>
       <c r="C74" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D74" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E74" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -8605,13 +8617,13 @@
         <v>766</v>
       </c>
       <c r="C75" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D75" t="s">
         <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -8927,13 +8939,13 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
+        <v>941</v>
+      </c>
+      <c r="D89" t="s">
         <v>942</v>
       </c>
-      <c r="D89" t="s">
-        <v>943</v>
-      </c>
       <c r="E89" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -8950,13 +8962,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D90" t="s">
         <v>505</v>
       </c>
       <c r="E90" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -8973,13 +8985,13 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D91" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E91" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -9111,13 +9123,13 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
+        <v>921</v>
+      </c>
+      <c r="D97" t="s">
         <v>922</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>923</v>
-      </c>
-      <c r="E97" t="s">
-        <v>924</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -9134,13 +9146,13 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D98" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E98" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -9157,13 +9169,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D99" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E99" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -9180,13 +9192,13 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
+        <v>937</v>
+      </c>
+      <c r="D100" t="s">
         <v>938</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>939</v>
-      </c>
-      <c r="E100" t="s">
-        <v>940</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -9203,13 +9215,13 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D101" t="s">
         <v>505</v>
       </c>
       <c r="E101" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -9269,16 +9281,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>930</v>
+      </c>
+      <c r="C104" t="s">
         <v>931</v>
       </c>
-      <c r="C104" t="s">
-        <v>932</v>
-      </c>
       <c r="D104" t="s">
+        <v>933</v>
+      </c>
+      <c r="E104" t="s">
         <v>934</v>
-      </c>
-      <c r="E104" t="s">
-        <v>935</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -9292,16 +9304,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C105" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D105" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E105" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -9315,16 +9327,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C106" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D106" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E106" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -9338,16 +9350,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C107" t="s">
+        <v>932</v>
+      </c>
+      <c r="D107" t="s">
         <v>933</v>
       </c>
-      <c r="D107" t="s">
-        <v>934</v>
-      </c>
       <c r="E107" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -9367,7 +9379,7 @@
         <v>240</v>
       </c>
       <c r="D108" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E108" t="s">
         <v>687</v>
@@ -9390,7 +9402,7 @@
         <v>250</v>
       </c>
       <c r="D109" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E109" t="s">
         <v>688</v>
@@ -9410,10 +9422,10 @@
         <v>240</v>
       </c>
       <c r="C110" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D110" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E110" t="s">
         <v>689</v>
@@ -9433,10 +9445,10 @@
         <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D111" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E111" t="s">
         <v>690</v>
@@ -9456,10 +9468,10 @@
         <v>240</v>
       </c>
       <c r="C112" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D112" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E112" t="s">
         <v>691</v>
@@ -9479,10 +9491,10 @@
         <v>240</v>
       </c>
       <c r="C113" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D113" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E113" t="s">
         <v>692</v>
@@ -9502,10 +9514,10 @@
         <v>240</v>
       </c>
       <c r="C114" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D114" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E114" t="s">
         <v>693</v>
@@ -9525,10 +9537,10 @@
         <v>240</v>
       </c>
       <c r="C115" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D115" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E115" t="s">
         <v>694</v>
@@ -9548,10 +9560,10 @@
         <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D116" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E116" t="s">
         <v>695</v>
@@ -9571,10 +9583,10 @@
         <v>240</v>
       </c>
       <c r="C117" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D117" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E117" t="s">
         <v>696</v>
@@ -9594,10 +9606,10 @@
         <v>240</v>
       </c>
       <c r="C118" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D118" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E118" t="s">
         <v>697</v>
@@ -9617,10 +9629,10 @@
         <v>240</v>
       </c>
       <c r="C119" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D119" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E119" t="s">
         <v>698</v>
@@ -9640,10 +9652,10 @@
         <v>240</v>
       </c>
       <c r="C120" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D120" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E120" t="s">
         <v>699</v>
@@ -9663,10 +9675,10 @@
         <v>240</v>
       </c>
       <c r="C121" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D121" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E121" t="s">
         <v>693</v>
@@ -9686,10 +9698,10 @@
         <v>240</v>
       </c>
       <c r="C122" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D122" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E122" t="s">
         <v>696</v>
@@ -9709,10 +9721,10 @@
         <v>240</v>
       </c>
       <c r="C123" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D123" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E123" t="s">
         <v>700</v>
@@ -9732,10 +9744,10 @@
         <v>240</v>
       </c>
       <c r="C124" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D124" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E124" t="s">
         <v>771</v>
@@ -9755,10 +9767,10 @@
         <v>240</v>
       </c>
       <c r="C125" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D125" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E125" t="s">
         <v>772</v>
@@ -9778,10 +9790,10 @@
         <v>240</v>
       </c>
       <c r="C126" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D126" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E126" t="s">
         <v>701</v>
@@ -9801,10 +9813,10 @@
         <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D127" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E127" t="s">
         <v>702</v>
@@ -9824,10 +9836,10 @@
         <v>240</v>
       </c>
       <c r="C128" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D128" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E128" t="s">
         <v>694</v>
@@ -9847,10 +9859,10 @@
         <v>240</v>
       </c>
       <c r="C129" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D129" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E129" s="59" t="s">
         <v>697</v>
@@ -9870,10 +9882,10 @@
         <v>240</v>
       </c>
       <c r="C130" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D130" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E130" s="59" t="s">
         <v>703</v>
@@ -9893,10 +9905,10 @@
         <v>240</v>
       </c>
       <c r="C131" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D131" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E131" s="59" t="s">
         <v>773</v>
@@ -9916,10 +9928,10 @@
         <v>240</v>
       </c>
       <c r="C132" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D132" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E132" s="59" t="s">
         <v>774</v>
@@ -9939,10 +9951,10 @@
         <v>240</v>
       </c>
       <c r="C133" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D133" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E133" t="s">
         <v>705</v>
@@ -9962,10 +9974,10 @@
         <v>240</v>
       </c>
       <c r="C134" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D134" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E134" t="s">
         <v>706</v>
@@ -9985,10 +9997,10 @@
         <v>240</v>
       </c>
       <c r="C135" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D135" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E135" t="s">
         <v>700</v>
@@ -10008,10 +10020,10 @@
         <v>240</v>
       </c>
       <c r="C136" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D136" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E136" t="s">
         <v>703</v>
@@ -10031,10 +10043,10 @@
         <v>240</v>
       </c>
       <c r="C137" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E137" t="s">
         <v>775</v>
@@ -10054,10 +10066,10 @@
         <v>240</v>
       </c>
       <c r="C138" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D138" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E138" t="s">
         <v>771</v>
@@ -10077,10 +10089,10 @@
         <v>240</v>
       </c>
       <c r="C139" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D139" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E139" t="s">
         <v>704</v>
@@ -10100,10 +10112,10 @@
         <v>240</v>
       </c>
       <c r="C140" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D140" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E140" t="s">
         <v>707</v>
@@ -10123,10 +10135,10 @@
         <v>240</v>
       </c>
       <c r="C141" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D141" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E141" t="s">
         <v>776</v>
@@ -10146,10 +10158,10 @@
         <v>240</v>
       </c>
       <c r="C142" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D142" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E142" t="s">
         <v>772</v>
@@ -10169,10 +10181,10 @@
         <v>240</v>
       </c>
       <c r="C143" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D143" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E143" t="s">
         <v>774</v>
@@ -10195,7 +10207,7 @@
         <v>251</v>
       </c>
       <c r="D144" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E144" t="s">
         <v>708</v>
@@ -10218,7 +10230,7 @@
         <v>568</v>
       </c>
       <c r="D145" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E145" t="s">
         <v>709</v>
@@ -10241,7 +10253,7 @@
         <v>567</v>
       </c>
       <c r="D146" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E146" t="s">
         <v>710</v>
@@ -10264,7 +10276,7 @@
         <v>570</v>
       </c>
       <c r="D147" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E147" t="s">
         <v>711</v>
@@ -10287,7 +10299,7 @@
         <v>583</v>
       </c>
       <c r="D148" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E148" t="s">
         <v>712</v>
@@ -10310,7 +10322,7 @@
         <v>586</v>
       </c>
       <c r="D149" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E149" t="s">
         <v>713</v>
@@ -10333,7 +10345,7 @@
         <v>587</v>
       </c>
       <c r="D150" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E150" t="s">
         <v>714</v>
@@ -10356,7 +10368,7 @@
         <v>588</v>
       </c>
       <c r="D151" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E151" t="s">
         <v>715</v>
@@ -10379,7 +10391,7 @@
         <v>589</v>
       </c>
       <c r="D152" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E152" t="s">
         <v>716</v>
@@ -10402,7 +10414,7 @@
         <v>590</v>
       </c>
       <c r="D153" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E153" t="s">
         <v>717</v>
@@ -10425,7 +10437,7 @@
         <v>584</v>
       </c>
       <c r="D154" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E154" t="s">
         <v>718</v>
@@ -10448,7 +10460,7 @@
         <v>591</v>
       </c>
       <c r="D155" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E155" t="s">
         <v>719</v>
@@ -10471,7 +10483,7 @@
         <v>592</v>
       </c>
       <c r="D156" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E156" t="s">
         <v>720</v>
@@ -10494,7 +10506,7 @@
         <v>585</v>
       </c>
       <c r="D157" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E157" t="s">
         <v>721</v>
@@ -10517,7 +10529,7 @@
         <v>593</v>
       </c>
       <c r="D158" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E158" t="s">
         <v>722</v>
@@ -10537,13 +10549,13 @@
         <v>240</v>
       </c>
       <c r="C159" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D159" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E159" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -10563,7 +10575,7 @@
         <v>572</v>
       </c>
       <c r="D160" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E160" t="s">
         <v>723</v>
@@ -10586,7 +10598,7 @@
         <v>574</v>
       </c>
       <c r="D161" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E161" t="s">
         <v>724</v>
@@ -10609,7 +10621,7 @@
         <v>576</v>
       </c>
       <c r="D162" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E162" t="s">
         <v>725</v>
@@ -10632,7 +10644,7 @@
         <v>577</v>
       </c>
       <c r="D163" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E163" t="s">
         <v>726</v>
@@ -10655,7 +10667,7 @@
         <v>579</v>
       </c>
       <c r="D164" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E164" t="s">
         <v>727</v>
@@ -10675,13 +10687,13 @@
         <v>240</v>
       </c>
       <c r="C165" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D165" t="s">
+        <v>849</v>
+      </c>
+      <c r="E165" t="s">
         <v>1184</v>
-      </c>
-      <c r="D165" t="s">
-        <v>850</v>
-      </c>
-      <c r="E165" t="s">
-        <v>1185</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -10701,7 +10713,7 @@
         <v>580</v>
       </c>
       <c r="D166" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E166" t="s">
         <v>728</v>
@@ -10724,7 +10736,7 @@
         <v>581</v>
       </c>
       <c r="D167" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E167" t="s">
         <v>729</v>
@@ -10747,7 +10759,7 @@
         <v>582</v>
       </c>
       <c r="D168" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E168" t="s">
         <v>730</v>
@@ -10770,7 +10782,7 @@
         <v>578</v>
       </c>
       <c r="D169" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E169" t="s">
         <v>731</v>
@@ -10793,7 +10805,7 @@
         <v>575</v>
       </c>
       <c r="D170" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E170" t="s">
         <v>732</v>
@@ -10816,7 +10828,7 @@
         <v>571</v>
       </c>
       <c r="D171" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E171" t="s">
         <v>733</v>
@@ -10839,7 +10851,7 @@
         <v>573</v>
       </c>
       <c r="D172" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E172" t="s">
         <v>734</v>
@@ -10862,7 +10874,7 @@
         <v>594</v>
       </c>
       <c r="D173" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E173" t="s">
         <v>735</v>
@@ -10885,7 +10897,7 @@
         <v>609</v>
       </c>
       <c r="D174" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E174" t="s">
         <v>736</v>
@@ -10908,7 +10920,7 @@
         <v>598</v>
       </c>
       <c r="D175" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E175" t="s">
         <v>737</v>
@@ -10931,7 +10943,7 @@
         <v>599</v>
       </c>
       <c r="D176" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E176" t="s">
         <v>738</v>
@@ -10954,7 +10966,7 @@
         <v>601</v>
       </c>
       <c r="D177" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E177" t="s">
         <v>739</v>
@@ -10977,7 +10989,7 @@
         <v>602</v>
       </c>
       <c r="D178" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E178" t="s">
         <v>740</v>
@@ -11000,7 +11012,7 @@
         <v>603</v>
       </c>
       <c r="D179" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E179" t="s">
         <v>741</v>
@@ -11023,7 +11035,7 @@
         <v>600</v>
       </c>
       <c r="D180" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E180" t="s">
         <v>742</v>
@@ -11046,7 +11058,7 @@
         <v>607</v>
       </c>
       <c r="D181" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E181" t="s">
         <v>743</v>
@@ -11069,7 +11081,7 @@
         <v>605</v>
       </c>
       <c r="D182" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E182" t="s">
         <v>744</v>
@@ -11092,7 +11104,7 @@
         <v>604</v>
       </c>
       <c r="D183" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E183" t="s">
         <v>745</v>
@@ -11115,7 +11127,7 @@
         <v>606</v>
       </c>
       <c r="D184" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E184" t="s">
         <v>746</v>
@@ -11138,7 +11150,7 @@
         <v>608</v>
       </c>
       <c r="D185" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E185" t="s">
         <v>747</v>
@@ -11161,7 +11173,7 @@
         <v>610</v>
       </c>
       <c r="D186" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E186" t="s">
         <v>748</v>
@@ -11184,7 +11196,7 @@
         <v>611</v>
       </c>
       <c r="D187" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E187" t="s">
         <v>749</v>
@@ -11207,7 +11219,7 @@
         <v>612</v>
       </c>
       <c r="D188" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E188" t="s">
         <v>750</v>
@@ -11230,7 +11242,7 @@
         <v>613</v>
       </c>
       <c r="D189" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E189" t="s">
         <v>751</v>
@@ -11253,7 +11265,7 @@
         <v>596</v>
       </c>
       <c r="D190" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E190" t="s">
         <v>752</v>
@@ -11276,7 +11288,7 @@
         <v>597</v>
       </c>
       <c r="D191" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E191" t="s">
         <v>753</v>
@@ -11299,7 +11311,7 @@
         <v>595</v>
       </c>
       <c r="D192" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E192" t="s">
         <v>753</v>
@@ -11322,7 +11334,7 @@
         <v>569</v>
       </c>
       <c r="D193" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E193" t="s">
         <v>754</v>
@@ -11345,7 +11357,7 @@
         <v>252</v>
       </c>
       <c r="D194" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E194" t="s">
         <v>755</v>
@@ -11365,13 +11377,13 @@
         <v>240</v>
       </c>
       <c r="C195" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D195" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E195" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -11388,13 +11400,13 @@
         <v>240</v>
       </c>
       <c r="C196" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D196" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E196" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F196">
         <v>2</v>
@@ -11411,13 +11423,13 @@
         <v>240</v>
       </c>
       <c r="C197" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D197" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E197" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F197">
         <v>2</v>
@@ -11434,13 +11446,13 @@
         <v>240</v>
       </c>
       <c r="C198" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D198" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E198" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F198">
         <v>2</v>
@@ -11460,7 +11472,7 @@
         <v>253</v>
       </c>
       <c r="D199" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E199" t="s">
         <v>756</v>
@@ -11483,7 +11495,7 @@
         <v>254</v>
       </c>
       <c r="D200" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E200" t="s">
         <v>757</v>
@@ -11506,7 +11518,7 @@
         <v>241</v>
       </c>
       <c r="D201" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E201" t="s">
         <v>758</v>
@@ -11529,7 +11541,7 @@
         <v>242</v>
       </c>
       <c r="D202" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E202" t="s">
         <v>759</v>
@@ -11552,7 +11564,7 @@
         <v>243</v>
       </c>
       <c r="D203" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E203" t="s">
         <v>760</v>
@@ -11595,13 +11607,13 @@
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D205" t="s">
         <v>38</v>
       </c>
       <c r="E205" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F205">
         <v>2</v>
@@ -11618,7 +11630,7 @@
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D206" t="s">
         <v>38</v>
@@ -11687,13 +11699,13 @@
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D209" t="s">
         <v>36</v>
       </c>
       <c r="E209" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -11710,7 +11722,7 @@
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D210" t="s">
         <v>36</v>
@@ -11779,13 +11791,13 @@
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D213" t="s">
         <v>37</v>
       </c>
       <c r="E213" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F213">
         <v>2</v>
@@ -11802,7 +11814,7 @@
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D214" t="s">
         <v>37</v>
@@ -11871,13 +11883,13 @@
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D217" t="s">
         <v>35</v>
       </c>
       <c r="E217" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -11894,7 +11906,7 @@
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D218" t="s">
         <v>35</v>
@@ -11969,7 +11981,7 @@
         <v>35</v>
       </c>
       <c r="E221" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F221">
         <v>3</v>
@@ -12216,13 +12228,13 @@
         <v>5</v>
       </c>
       <c r="C232" t="s">
+        <v>833</v>
+      </c>
+      <c r="D232" t="s">
         <v>834</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>835</v>
-      </c>
-      <c r="E232" t="s">
-        <v>836</v>
       </c>
       <c r="F232">
         <v>2</v>
@@ -12354,13 +12366,13 @@
         <v>5</v>
       </c>
       <c r="C238" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D238" t="s">
         <v>1179</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>1180</v>
-      </c>
-      <c r="E238" t="s">
-        <v>1181</v>
       </c>
       <c r="F238">
         <v>2</v>
@@ -13001,7 +13013,7 @@
         <v>13</v>
       </c>
       <c r="D266" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E266" t="s">
         <v>792</v>
@@ -13021,13 +13033,13 @@
         <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D267" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E267" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F267">
         <v>2</v>
@@ -13044,10 +13056,10 @@
         <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D268" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E268" t="s">
         <v>793</v>
@@ -13070,7 +13082,7 @@
         <v>14</v>
       </c>
       <c r="D269" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E269" t="s">
         <v>794</v>
@@ -13113,13 +13125,13 @@
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D271" t="s">
         <v>41</v>
       </c>
       <c r="E271" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F271">
         <v>2</v>
@@ -13136,7 +13148,7 @@
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D272" t="s">
         <v>41</v>
@@ -13205,13 +13217,13 @@
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D275" t="s">
         <v>798</v>
       </c>
       <c r="E275" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F275">
         <v>2</v>
@@ -13228,7 +13240,7 @@
         <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D276" t="s">
         <v>798</v>
@@ -13297,13 +13309,13 @@
         <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D279" t="s">
         <v>39</v>
       </c>
       <c r="E279" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F279">
         <v>2</v>
@@ -13320,7 +13332,7 @@
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D280" t="s">
         <v>39</v>
@@ -13389,13 +13401,13 @@
         <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D283" t="s">
         <v>40</v>
       </c>
       <c r="E283" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F283">
         <v>2</v>
@@ -13412,7 +13424,7 @@
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D284" t="s">
         <v>40</v>
@@ -13481,13 +13493,13 @@
         <v>5</v>
       </c>
       <c r="C287" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D287" t="s">
         <v>42</v>
       </c>
       <c r="E287" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F287">
         <v>2</v>
@@ -13504,7 +13516,7 @@
         <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D288" t="s">
         <v>42</v>
@@ -13547,16 +13559,16 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
+        <v>943</v>
+      </c>
+      <c r="C290" t="s">
         <v>944</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>945</v>
       </c>
-      <c r="D290" t="s">
+      <c r="E290" t="s">
         <v>946</v>
-      </c>
-      <c r="E290" t="s">
-        <v>947</v>
       </c>
       <c r="F290">
         <v>3</v>
@@ -13570,16 +13582,16 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
+        <v>947</v>
+      </c>
+      <c r="C291" t="s">
         <v>948</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
+        <v>945</v>
+      </c>
+      <c r="E291" t="s">
         <v>949</v>
-      </c>
-      <c r="D291" t="s">
-        <v>946</v>
-      </c>
-      <c r="E291" t="s">
-        <v>950</v>
       </c>
       <c r="F291">
         <v>3</v>
@@ -13593,16 +13605,16 @@
         <v>288</v>
       </c>
       <c r="B292" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C292" t="s">
         <v>1186</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
+        <v>942</v>
+      </c>
+      <c r="E292" t="s">
         <v>1187</v>
-      </c>
-      <c r="D292" t="s">
-        <v>943</v>
-      </c>
-      <c r="E292" t="s">
-        <v>1188</v>
       </c>
       <c r="F292">
         <v>3</v>
@@ -13622,7 +13634,7 @@
         <v>239</v>
       </c>
       <c r="D293" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E293" t="s">
         <v>260</v>
@@ -13645,7 +13657,7 @@
         <v>255</v>
       </c>
       <c r="D294" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E294" t="s">
         <v>261</v>
@@ -13665,10 +13677,10 @@
         <v>239</v>
       </c>
       <c r="C295" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D295" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E295" t="s">
         <v>262</v>
@@ -13688,10 +13700,10 @@
         <v>239</v>
       </c>
       <c r="C296" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D296" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E296" t="s">
         <v>263</v>
@@ -13711,10 +13723,10 @@
         <v>239</v>
       </c>
       <c r="C297" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D297" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E297" t="s">
         <v>649</v>
@@ -13734,10 +13746,10 @@
         <v>239</v>
       </c>
       <c r="C298" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D298" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E298" t="s">
         <v>666</v>
@@ -13757,10 +13769,10 @@
         <v>239</v>
       </c>
       <c r="C299" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D299" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E299" t="s">
         <v>660</v>
@@ -13780,10 +13792,10 @@
         <v>239</v>
       </c>
       <c r="C300" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D300" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E300" t="s">
         <v>654</v>
@@ -13803,10 +13815,10 @@
         <v>239</v>
       </c>
       <c r="C301" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D301" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E301" t="s">
         <v>667</v>
@@ -13826,10 +13838,10 @@
         <v>239</v>
       </c>
       <c r="C302" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D302" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E302" t="s">
         <v>661</v>
@@ -13849,10 +13861,10 @@
         <v>239</v>
       </c>
       <c r="C303" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D303" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E303" t="s">
         <v>655</v>
@@ -13872,10 +13884,10 @@
         <v>239</v>
       </c>
       <c r="C304" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D304" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E304" t="s">
         <v>658</v>
@@ -13895,10 +13907,10 @@
         <v>239</v>
       </c>
       <c r="C305" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D305" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E305" t="s">
         <v>659</v>
@@ -13918,10 +13930,10 @@
         <v>239</v>
       </c>
       <c r="C306" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D306" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E306" t="s">
         <v>660</v>
@@ -13941,10 +13953,10 @@
         <v>239</v>
       </c>
       <c r="C307" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D307" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E307" t="s">
         <v>661</v>
@@ -13964,10 +13976,10 @@
         <v>239</v>
       </c>
       <c r="C308" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D308" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E308" t="s">
         <v>665</v>
@@ -13987,10 +13999,10 @@
         <v>239</v>
       </c>
       <c r="C309" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D309" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E309" t="s">
         <v>663</v>
@@ -14010,10 +14022,10 @@
         <v>239</v>
       </c>
       <c r="C310" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D310" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E310" t="s">
         <v>662</v>
@@ -14033,10 +14045,10 @@
         <v>239</v>
       </c>
       <c r="C311" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D311" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E311" t="s">
         <v>652</v>
@@ -14056,10 +14068,10 @@
         <v>239</v>
       </c>
       <c r="C312" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D312" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E312" t="s">
         <v>653</v>
@@ -14079,10 +14091,10 @@
         <v>239</v>
       </c>
       <c r="C313" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D313" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E313" t="s">
         <v>654</v>
@@ -14102,10 +14114,10 @@
         <v>239</v>
       </c>
       <c r="C314" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D314" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E314" s="59" t="s">
         <v>655</v>
@@ -14125,10 +14137,10 @@
         <v>239</v>
       </c>
       <c r="C315" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D315" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E315" s="59" t="s">
         <v>664</v>
@@ -14148,10 +14160,10 @@
         <v>239</v>
       </c>
       <c r="C316" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D316" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E316" s="59" t="s">
         <v>657</v>
@@ -14171,10 +14183,10 @@
         <v>239</v>
       </c>
       <c r="C317" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D317" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E317" s="59" t="s">
         <v>656</v>
@@ -14194,10 +14206,10 @@
         <v>239</v>
       </c>
       <c r="C318" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D318" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E318" t="s">
         <v>671</v>
@@ -14217,10 +14229,10 @@
         <v>239</v>
       </c>
       <c r="C319" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D319" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E319" t="s">
         <v>670</v>
@@ -14240,10 +14252,10 @@
         <v>239</v>
       </c>
       <c r="C320" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D320" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E320" t="s">
         <v>665</v>
@@ -14263,10 +14275,10 @@
         <v>239</v>
       </c>
       <c r="C321" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D321" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E321" t="s">
         <v>664</v>
@@ -14286,10 +14298,10 @@
         <v>239</v>
       </c>
       <c r="C322" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D322" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E322" t="s">
         <v>669</v>
@@ -14309,10 +14321,10 @@
         <v>239</v>
       </c>
       <c r="C323" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D323" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E323" t="s">
         <v>663</v>
@@ -14332,10 +14344,10 @@
         <v>239</v>
       </c>
       <c r="C324" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D324" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E324" t="s">
         <v>657</v>
@@ -14355,10 +14367,10 @@
         <v>239</v>
       </c>
       <c r="C325" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D325" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E325" t="s">
         <v>672</v>
@@ -14378,10 +14390,10 @@
         <v>239</v>
       </c>
       <c r="C326" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D326" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E326" t="s">
         <v>668</v>
@@ -14401,10 +14413,10 @@
         <v>239</v>
       </c>
       <c r="C327" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D327" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E327" t="s">
         <v>662</v>
@@ -14424,10 +14436,10 @@
         <v>239</v>
       </c>
       <c r="C328" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D328" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E328" t="s">
         <v>656</v>
@@ -14450,7 +14462,7 @@
         <v>256</v>
       </c>
       <c r="D329" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E329" t="s">
         <v>673</v>
@@ -14473,7 +14485,7 @@
         <v>675</v>
       </c>
       <c r="D330" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E330" t="s">
         <v>458</v>
@@ -14496,7 +14508,7 @@
         <v>674</v>
       </c>
       <c r="D331" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E331" t="s">
         <v>457</v>
@@ -14519,7 +14531,7 @@
         <v>523</v>
       </c>
       <c r="D332" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E332" t="s">
         <v>460</v>
@@ -14542,7 +14554,7 @@
         <v>536</v>
       </c>
       <c r="D333" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E333" t="s">
         <v>651</v>
@@ -14565,7 +14577,7 @@
         <v>539</v>
       </c>
       <c r="D334" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E334" t="s">
         <v>475</v>
@@ -14588,7 +14600,7 @@
         <v>540</v>
       </c>
       <c r="D335" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E335" t="s">
         <v>476</v>
@@ -14611,7 +14623,7 @@
         <v>541</v>
       </c>
       <c r="D336" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E336" t="s">
         <v>477</v>
@@ -14634,7 +14646,7 @@
         <v>542</v>
       </c>
       <c r="D337" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E337" t="s">
         <v>478</v>
@@ -14657,7 +14669,7 @@
         <v>543</v>
       </c>
       <c r="D338" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E338" t="s">
         <v>479</v>
@@ -14680,7 +14692,7 @@
         <v>537</v>
       </c>
       <c r="D339" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E339" t="s">
         <v>473</v>
@@ -14703,7 +14715,7 @@
         <v>544</v>
       </c>
       <c r="D340" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E340" t="s">
         <v>480</v>
@@ -14726,7 +14738,7 @@
         <v>545</v>
       </c>
       <c r="D341" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E341" t="s">
         <v>481</v>
@@ -14749,7 +14761,7 @@
         <v>538</v>
       </c>
       <c r="D342" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E342" t="s">
         <v>474</v>
@@ -14772,7 +14784,7 @@
         <v>546</v>
       </c>
       <c r="D343" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E343" t="s">
         <v>482</v>
@@ -14792,13 +14804,13 @@
         <v>239</v>
       </c>
       <c r="C344" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D344" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E344" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F344">
         <v>2</v>
@@ -14818,7 +14830,7 @@
         <v>525</v>
       </c>
       <c r="D345" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E345" t="s">
         <v>462</v>
@@ -14841,7 +14853,7 @@
         <v>527</v>
       </c>
       <c r="D346" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E346" t="s">
         <v>464</v>
@@ -14864,7 +14876,7 @@
         <v>529</v>
       </c>
       <c r="D347" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E347" t="s">
         <v>466</v>
@@ -14887,7 +14899,7 @@
         <v>530</v>
       </c>
       <c r="D348" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E348" t="s">
         <v>467</v>
@@ -14910,7 +14922,7 @@
         <v>532</v>
       </c>
       <c r="D349" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E349" t="s">
         <v>469</v>
@@ -14930,13 +14942,13 @@
         <v>239</v>
       </c>
       <c r="C350" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D350" t="s">
+        <v>849</v>
+      </c>
+      <c r="E350" t="s">
         <v>1182</v>
-      </c>
-      <c r="D350" t="s">
-        <v>850</v>
-      </c>
-      <c r="E350" t="s">
-        <v>1183</v>
       </c>
       <c r="F350">
         <v>2</v>
@@ -14956,7 +14968,7 @@
         <v>533</v>
       </c>
       <c r="D351" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E351" t="s">
         <v>470</v>
@@ -14979,7 +14991,7 @@
         <v>534</v>
       </c>
       <c r="D352" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E352" t="s">
         <v>471</v>
@@ -15002,7 +15014,7 @@
         <v>535</v>
       </c>
       <c r="D353" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E353" t="s">
         <v>472</v>
@@ -15025,7 +15037,7 @@
         <v>531</v>
       </c>
       <c r="D354" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E354" t="s">
         <v>468</v>
@@ -15048,7 +15060,7 @@
         <v>528</v>
       </c>
       <c r="D355" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E355" t="s">
         <v>465</v>
@@ -15071,7 +15083,7 @@
         <v>524</v>
       </c>
       <c r="D356" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E356" t="s">
         <v>461</v>
@@ -15094,7 +15106,7 @@
         <v>526</v>
       </c>
       <c r="D357" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E357" t="s">
         <v>463</v>
@@ -15117,7 +15129,7 @@
         <v>547</v>
       </c>
       <c r="D358" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E358" t="s">
         <v>483</v>
@@ -15140,7 +15152,7 @@
         <v>562</v>
       </c>
       <c r="D359" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E359" t="s">
         <v>496</v>
@@ -15163,7 +15175,7 @@
         <v>551</v>
       </c>
       <c r="D360" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E360" t="s">
         <v>650</v>
@@ -15186,7 +15198,7 @@
         <v>552</v>
       </c>
       <c r="D361" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E361" t="s">
         <v>486</v>
@@ -15209,7 +15221,7 @@
         <v>554</v>
       </c>
       <c r="D362" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E362" t="s">
         <v>488</v>
@@ -15232,7 +15244,7 @@
         <v>555</v>
       </c>
       <c r="D363" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E363" t="s">
         <v>489</v>
@@ -15255,7 +15267,7 @@
         <v>556</v>
       </c>
       <c r="D364" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E364" t="s">
         <v>490</v>
@@ -15278,7 +15290,7 @@
         <v>553</v>
       </c>
       <c r="D365" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E365" t="s">
         <v>487</v>
@@ -15301,7 +15313,7 @@
         <v>560</v>
       </c>
       <c r="D366" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E366" t="s">
         <v>494</v>
@@ -15324,7 +15336,7 @@
         <v>558</v>
       </c>
       <c r="D367" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E367" t="s">
         <v>492</v>
@@ -15347,7 +15359,7 @@
         <v>557</v>
       </c>
       <c r="D368" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E368" t="s">
         <v>491</v>
@@ -15370,7 +15382,7 @@
         <v>559</v>
       </c>
       <c r="D369" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E369" t="s">
         <v>493</v>
@@ -15393,7 +15405,7 @@
         <v>561</v>
       </c>
       <c r="D370" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E370" t="s">
         <v>495</v>
@@ -15416,7 +15428,7 @@
         <v>563</v>
       </c>
       <c r="D371" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E371" t="s">
         <v>497</v>
@@ -15439,7 +15451,7 @@
         <v>564</v>
       </c>
       <c r="D372" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E372" t="s">
         <v>498</v>
@@ -15462,7 +15474,7 @@
         <v>565</v>
       </c>
       <c r="D373" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E373" t="s">
         <v>499</v>
@@ -15485,7 +15497,7 @@
         <v>566</v>
       </c>
       <c r="D374" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E374" t="s">
         <v>500</v>
@@ -15508,7 +15520,7 @@
         <v>549</v>
       </c>
       <c r="D375" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E375" t="s">
         <v>485</v>
@@ -15531,7 +15543,7 @@
         <v>550</v>
       </c>
       <c r="D376" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E376" t="s">
         <v>484</v>
@@ -15554,7 +15566,7 @@
         <v>548</v>
       </c>
       <c r="D377" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E377" t="s">
         <v>484</v>
@@ -15577,7 +15589,7 @@
         <v>522</v>
       </c>
       <c r="D378" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E378" t="s">
         <v>459</v>
@@ -15600,7 +15612,7 @@
         <v>257</v>
       </c>
       <c r="D379" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E379" t="s">
         <v>504</v>
@@ -15623,7 +15635,7 @@
         <v>258</v>
       </c>
       <c r="D380" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E380" t="s">
         <v>264</v>
@@ -15646,7 +15658,7 @@
         <v>259</v>
       </c>
       <c r="D381" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E381" t="s">
         <v>265</v>
@@ -15669,7 +15681,7 @@
         <v>244</v>
       </c>
       <c r="D382" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E382" t="s">
         <v>501</v>
@@ -15692,7 +15704,7 @@
         <v>245</v>
       </c>
       <c r="D383" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E383" t="s">
         <v>502</v>
@@ -15715,7 +15727,7 @@
         <v>246</v>
       </c>
       <c r="D384" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E384" t="s">
         <v>503</v>
@@ -15779,104 +15791,104 @@
     </row>
     <row r="2" spans="1:5" ht="17">
       <c r="A2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B2" t="s">
         <v>511</v>
       </c>
       <c r="C2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:5" ht="17">
       <c r="A3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" ht="17">
       <c r="A4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:5" ht="17">
       <c r="A5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="1:5" ht="17">
       <c r="A6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="60"/>
     </row>
     <row r="7" spans="1:5" ht="17">
       <c r="A7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="60"/>
     </row>
     <row r="8" spans="1:5" ht="17">
       <c r="A8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B8" t="s">
         <v>1048</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>1049</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1050</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="60"/>
     </row>
     <row r="9" spans="1:5" ht="17">
       <c r="A9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C9" t="s">
         <v>1051</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1052</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="60"/>
@@ -17369,8 +17381,8 @@
   </sheetPr>
   <dimension ref="A1:CM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="13"/>
@@ -17405,7 +17417,7 @@
         <v>821</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>113</v>
@@ -17505,19 +17517,19 @@
         <v>89</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E2" s="35" t="s">
+        <v>985</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>986</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>987</v>
       </c>
       <c r="G2" s="35"/>
       <c r="H2" s="35" t="s">
@@ -17654,151 +17666,204 @@
         <v>ar5ir3box-CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E4" t="s">
         <v>1209</v>
       </c>
-      <c r="E4" t="s">
-        <v>1210</v>
-      </c>
       <c r="F4">
-        <v>4.2465564222489602</v>
+        <v>3.8883829331771498</v>
       </c>
       <c r="G4">
-        <v>1.9268742822034199</v>
+        <v>1.9208970104027601</v>
       </c>
       <c r="H4" s="28" t="str">
         <f>"Model configuration tuned to "&amp;E4</f>
         <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J4" s="28" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K4" s="30" t="s">
         <v>1206</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>1207</v>
       </c>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="str">
-        <f t="shared" ref="B5:B25" si="0">CONCATENATE(C5, ",", D5, ",", E5)</f>
-        <v>ar5ir,3box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <f t="shared" ref="B5:B35" si="0">CONCATENATE(C5, ",", D5, ",", E5)</f>
+        <v>ar5ir,2box,CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D5" t="s">
         <v>1204</v>
       </c>
-      <c r="D5" t="s">
-        <v>1209</v>
-      </c>
       <c r="E5" t="s">
-        <v>1211</v>
+        <v>1220</v>
       </c>
       <c r="F5">
-        <v>5.6848653261538802</v>
+        <v>4.6604314677678502</v>
       </c>
       <c r="G5">
-        <v>1.83891764427791</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>822</v>
-      </c>
-      <c r="K5" s="30"/>
+        <v>1.65823136256026</v>
+      </c>
+      <c r="H5" s="28" t="str">
+        <f t="shared" ref="H5:K35" si="1">"Model configuration tuned to "&amp;E5</f>
+        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J5" s="28" t="str">
+        <f>J4</f>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K5" s="30" t="str">
+        <f>K4</f>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="A6" s="53"/>
       <c r="B6" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D6" t="s">
         <v>1204</v>
       </c>
-      <c r="D6" t="s">
-        <v>1209</v>
-      </c>
       <c r="E6" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="F6">
-        <v>6.0858716969402504</v>
+        <v>4.7749213573198501</v>
       </c>
       <c r="G6">
-        <v>1.9091965850430399</v>
-      </c>
-      <c r="K6" s="30"/>
+        <v>1.6458078758072401</v>
+      </c>
+      <c r="H6" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J6" s="28" t="str">
+        <f t="shared" ref="J6:J35" si="2">J5</f>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K6" s="30" t="str">
+        <f t="shared" ref="K6:K35" si="3">K5</f>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="A7" s="53"/>
       <c r="B7" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C7" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E7" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="F7">
-        <v>6.6046607627731904</v>
+        <v>4.8676924657394203</v>
       </c>
       <c r="G7">
-        <v>1.8427239014496899</v>
-      </c>
-      <c r="K7" s="30"/>
+        <v>1.7327607978922901</v>
+      </c>
+      <c r="H7" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J7" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K7" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="A8" s="53"/>
       <c r="B8" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+        <v>ar5ir,3box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="C8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D8" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E8" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F8">
-        <v>6.6786961717708397</v>
+        <v>5.6400004762161302</v>
       </c>
       <c r="G8">
-        <v>2.3951712982145801</v>
-      </c>
-      <c r="K8" s="30"/>
+        <v>1.90788994550314</v>
+      </c>
+      <c r="H8" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J8" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K8" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="A9" s="53"/>
       <c r="B9" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D9" t="s">
         <v>1204</v>
       </c>
-      <c r="D9" t="s">
-        <v>1209</v>
-      </c>
       <c r="E9" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="F9">
-        <v>6.7257135187210899</v>
+        <v>5.7544858730519701</v>
       </c>
       <c r="G9">
-        <v>2.8512289795492398</v>
+        <v>1.5786320593465899</v>
+      </c>
+      <c r="H9" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J9" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K9" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
       </c>
       <c r="L9" s="32"/>
     </row>
@@ -17806,22 +17871,34 @@
       <c r="A10" s="53"/>
       <c r="B10" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>ar5ir,3box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E10" t="s">
         <v>1216</v>
       </c>
       <c r="F10">
-        <v>7.0695263832295803</v>
+        <v>5.9849619111386696</v>
       </c>
       <c r="G10">
-        <v>2.2358125112417699</v>
+        <v>2.56750747873533</v>
+      </c>
+      <c r="H10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K10" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
       </c>
       <c r="L10" s="32"/>
     </row>
@@ -17829,22 +17906,34 @@
       <c r="A11" s="53"/>
       <c r="B11" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D11" t="s">
         <v>1204</v>
       </c>
-      <c r="D11" t="s">
-        <v>1209</v>
-      </c>
       <c r="E11" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="F11">
-        <v>7.1961366676712704</v>
+        <v>6.15826724672542</v>
       </c>
       <c r="G11">
-        <v>2.4401440777467802</v>
+        <v>1.84105608530307</v>
+      </c>
+      <c r="H11" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J11" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
       </c>
       <c r="L11" s="32"/>
     </row>
@@ -17852,22 +17941,34 @@
       <c r="A12" s="53"/>
       <c r="B12" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
       </c>
       <c r="C12" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D12" t="s">
         <v>1204</v>
       </c>
-      <c r="D12" t="s">
-        <v>1205</v>
-      </c>
       <c r="E12" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="F12">
-        <v>7.2058933963596496</v>
+        <v>6.1648418835021896</v>
       </c>
       <c r="G12">
-        <v>2.5110425251504598</v>
+        <v>2.77964097721043</v>
+      </c>
+      <c r="H12" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="J12" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K12" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
       </c>
       <c r="L12" s="32"/>
     </row>
@@ -17875,22 +17976,34 @@
       <c r="A13" s="53"/>
       <c r="B13" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="C13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D13" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E13" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="F13">
-        <v>7.6242346861737298</v>
+        <v>6.6063084373020704</v>
       </c>
       <c r="G13">
-        <v>1.9100532941197499</v>
+        <v>2.22838284355496</v>
+      </c>
+      <c r="H13" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="J13" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K13" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
       </c>
       <c r="L13" s="32"/>
     </row>
@@ -17898,283 +18011,743 @@
       <c r="A14" s="38"/>
       <c r="B14" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D14" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E14" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="F14">
-        <v>10.7626448008191</v>
+        <v>6.7808043875969304</v>
       </c>
       <c r="G14">
-        <v>1.7188802835738299</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+        <v>1.5018336488069499</v>
+      </c>
+      <c r="H14" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J14" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K14" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
       <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="B15" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="C15" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D15" t="s">
         <v>1204</v>
       </c>
-      <c r="D15" t="s">
-        <v>1209</v>
-      </c>
       <c r="E15" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="F15">
-        <v>11.0128032463845</v>
+        <v>6.7975907508722999</v>
       </c>
       <c r="G15">
-        <v>2.7817146818959699</v>
+        <v>1.9159176016136701</v>
+      </c>
+      <c r="H15" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-CESM2_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K15" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
       </c>
     </row>
     <row r="16" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="B16" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D16" t="s">
         <v>1204</v>
       </c>
-      <c r="D16" t="s">
-        <v>1205</v>
-      </c>
       <c r="E16" t="s">
-        <v>1210</v>
+        <v>1224</v>
       </c>
       <c r="F16">
-        <v>11.7069619611782</v>
+        <v>6.86884689256072</v>
       </c>
       <c r="G16">
-        <v>1.9256061868094401</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="36.75" customHeight="1" thickBot="1">
+        <v>2.3095936378866702</v>
+      </c>
+      <c r="H16" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J16" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K16" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B17" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C17" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D17" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E17" t="s">
         <v>1220</v>
       </c>
       <c r="F17">
-        <v>12.2015937747859</v>
+        <v>7.0265561916764101</v>
       </c>
       <c r="G17">
-        <v>2.5506355485310901</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="36.75" customHeight="1" thickBot="1">
+        <v>1.69960479936043</v>
+      </c>
+      <c r="H17" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K17" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B18" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C18" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D18" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E18" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="F18">
-        <v>12.360392547533699</v>
+        <v>7.1707996134210399</v>
       </c>
       <c r="G18">
-        <v>1.73309606890176</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="36.75" customHeight="1" thickBot="1">
+        <v>1.8461789270732401</v>
+      </c>
+      <c r="H18" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J18" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K18" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B19" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>ar5ir,2box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C19" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D19" t="s">
         <v>1204</v>
       </c>
-      <c r="D19" t="s">
-        <v>1205</v>
-      </c>
       <c r="E19" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="F19">
-        <v>13.0136795472177</v>
+        <v>7.4359428125203797</v>
       </c>
       <c r="G19">
-        <v>2.2368680967633199</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="36.75" customHeight="1" thickBot="1">
+        <v>1.8462748525833901</v>
+      </c>
+      <c r="H19" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J19" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K19" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B20" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
       </c>
       <c r="C20" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D20" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E20" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="F20">
-        <v>14.838175859403099</v>
+        <v>7.4897386925168199</v>
       </c>
       <c r="G20">
-        <v>1.8472362419972901</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="36.75" customHeight="1" thickBot="1">
+        <v>2.7807782105611798</v>
+      </c>
+      <c r="H20" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="J20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K20" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B21" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="C21" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D21" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E21" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="F21">
-        <v>16.7717869092996</v>
+        <v>7.8002326489343403</v>
       </c>
       <c r="G21">
-        <v>2.8569776462782999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="36.75" customHeight="1" thickBot="1">
+        <v>2.6353449263897999</v>
+      </c>
+      <c r="H21" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-CESM2_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K21" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B22" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
       </c>
       <c r="C22" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D22" t="s">
         <v>1204</v>
       </c>
-      <c r="D22" t="s">
-        <v>1205</v>
-      </c>
       <c r="E22" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
       <c r="F22">
-        <v>20.114319780558301</v>
+        <v>7.9858149852556002</v>
       </c>
       <c r="G22">
-        <v>1.8421798362731301</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="36.75" customHeight="1" thickBot="1">
+        <v>2.2904223860864299</v>
+      </c>
+      <c r="H22" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K22" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B23" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C23" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D23" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E23" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="F23">
-        <v>22.168483627489401</v>
+        <v>8.23432269905312</v>
       </c>
       <c r="G23">
-        <v>2.55287848862918</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="36.75" customHeight="1" thickBot="1">
+        <v>1.81377275062766</v>
+      </c>
+      <c r="H23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K23" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B24" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="C24" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D24" t="s">
         <v>1204</v>
       </c>
-      <c r="D24" t="s">
-        <v>1205</v>
-      </c>
       <c r="E24" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F24">
-        <v>26.679396646059502</v>
+        <v>8.3803876364999894</v>
       </c>
       <c r="G24">
-        <v>2.4009374276842399</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="36.75" customHeight="1">
+        <v>2.22681989607229</v>
+      </c>
+      <c r="H24" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="J24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K24" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B25" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>ar5ir,2box,CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C25" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D25" t="s">
         <v>1204</v>
       </c>
-      <c r="D25" t="s">
-        <v>1205</v>
-      </c>
       <c r="E25" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F25">
+        <v>8.5042228866140697</v>
+      </c>
+      <c r="G25">
+        <v>1.60118864510188</v>
+      </c>
+      <c r="H25" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J25" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K25" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B26" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,3box,CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F26">
+        <v>8.8187245100804397</v>
+      </c>
+      <c r="G26">
+        <v>1.51316220722272</v>
+      </c>
+      <c r="H26" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J26" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K26" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B27" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,2box,CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F27">
+        <v>9.8651644421965798</v>
+      </c>
+      <c r="G27">
+        <v>2.52472104840722</v>
+      </c>
+      <c r="H27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="J27" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K27" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B28" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,2box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F28">
+        <v>10.051406813280201</v>
+      </c>
+      <c r="G28">
+        <v>1.9103133233887899</v>
+      </c>
+      <c r="H28" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J28" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K28" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B29" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,2box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F29">
+        <v>10.324524704285899</v>
+      </c>
+      <c r="G29">
+        <v>2.8582182087247001</v>
+      </c>
+      <c r="H29" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J29" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K29" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B30" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,2box,CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F30">
+        <v>10.541577456198601</v>
+      </c>
+      <c r="G30">
+        <v>1.9463318253605699</v>
+      </c>
+      <c r="H30" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J30" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B31" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,3box,CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E31" t="s">
         <v>1219</v>
       </c>
-      <c r="F25">
-        <v>32.2534111242107</v>
-      </c>
-      <c r="G25">
-        <v>2.7838414315981801</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="36.75" customHeight="1"/>
-    <row r="27" spans="2:7" ht="36.75" customHeight="1"/>
-    <row r="28" spans="2:7" ht="36.75" customHeight="1"/>
-    <row r="29" spans="2:7" ht="36.75" customHeight="1"/>
-    <row r="30" spans="2:7" ht="36.75" customHeight="1"/>
-    <row r="31" spans="2:7" ht="36.75" customHeight="1"/>
-    <row r="32" spans="2:7" ht="36.75" customHeight="1"/>
-    <row r="33" ht="36.75" customHeight="1"/>
-    <row r="34" ht="36.75" customHeight="1"/>
-    <row r="35" ht="36.75" customHeight="1"/>
-    <row r="36" ht="36.75" customHeight="1"/>
-    <row r="37" ht="36.75" customHeight="1"/>
-    <row r="38" ht="36.75" customHeight="1"/>
-    <row r="39" ht="36.75" customHeight="1"/>
-    <row r="40" ht="36.75" customHeight="1"/>
-    <row r="41" ht="36.75" customHeight="1"/>
-    <row r="42" ht="36.75" customHeight="1"/>
-    <row r="43" ht="36.75" customHeight="1"/>
-    <row r="44" ht="36.75" customHeight="1"/>
-    <row r="45" ht="36.75" customHeight="1"/>
-    <row r="46" ht="36.75" customHeight="1"/>
-    <row r="47" ht="36.75" customHeight="1"/>
-    <row r="48" ht="36.75" customHeight="1"/>
+      <c r="F31">
+        <v>11.081261663595701</v>
+      </c>
+      <c r="G31">
+        <v>2.5503548725385801</v>
+      </c>
+      <c r="H31" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J31" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K31" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B32" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,3box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F32">
+        <v>11.121920885669599</v>
+      </c>
+      <c r="G32">
+        <v>2.85597762214273</v>
+      </c>
+      <c r="H32" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J32" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K32" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B33" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,3box,CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F33">
+        <v>11.3932405906894</v>
+      </c>
+      <c r="G33">
+        <v>2.3995591367559701</v>
+      </c>
+      <c r="H33" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="J33" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K33" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B34" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,3box,CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F34">
+        <v>11.487074387838099</v>
+      </c>
+      <c r="G34">
+        <v>2.2471400050820498</v>
+      </c>
+      <c r="H34" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J34" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K34" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="36.75" customHeight="1">
+      <c r="B35" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,2box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F35">
+        <v>12.142995499498401</v>
+      </c>
+      <c r="G35">
+        <v>2.3713783208676902</v>
+      </c>
+      <c r="H35" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J35" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K35" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="37" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="38" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="39" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="40" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="41" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="42" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="43" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="44" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="45" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="46" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="47" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="48" spans="2:11" ht="36.75" customHeight="1"/>
     <row r="49" ht="36.75" customHeight="1"/>
     <row r="50" ht="36.75" customHeight="1"/>
     <row r="51" ht="36.75" customHeight="1"/>
@@ -18724,7 +19297,7 @@
         <v>512</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C1" s="52" t="s">
         <v>74</v>

--- a/notebooks/rcmip-data-submission-template-ar5ir.xlsx
+++ b/notebooks/rcmip-data-submission-template-ar5ir.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F837C5-4129-E748-ACE9-A74DFB38E067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A8E198-ED6C-2445-AE31-57EF8ECA9567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4222,20 +4222,20 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4632,25 +4632,25 @@
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="35.75" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="76"/>
+      <c r="B3" s="78"/>
     </row>
     <row r="4" spans="1:13" ht="61" customHeight="1">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
@@ -4669,20 +4669,20 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:13" ht="6" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>848</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -4696,8 +4696,8 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -4711,10 +4711,10 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>992</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4728,8 +4728,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4743,10 +4743,10 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4760,8 +4760,8 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -4775,10 +4775,10 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="90" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="78" t="s">
         <v>628</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4807,10 +4807,10 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="77" t="s">
         <v>820</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="77"/>
     </row>
     <row r="17" spans="1:2" ht="26.25" customHeight="1">
       <c r="A17" s="69" t="s">
@@ -4833,10 +4833,10 @@
       <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="76"/>
+      <c r="B20" s="78"/>
     </row>
     <row r="21" spans="1:2" ht="27.75" customHeight="1">
       <c r="A21" s="72"/>
@@ -4849,10 +4849,10 @@
       <c r="B22" s="72"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="78" t="s">
         <v>1176</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="78"/>
     </row>
     <row r="24" spans="1:2" ht="27.75" customHeight="1">
       <c r="A24" s="68"/>
@@ -4865,10 +4865,10 @@
       <c r="B25" s="68"/>
     </row>
     <row r="26" spans="1:2" ht="88" customHeight="1">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="78" t="s">
         <v>1032</v>
       </c>
-      <c r="B26" s="76"/>
+      <c r="B26" s="78"/>
     </row>
     <row r="27" spans="1:2" ht="27.75" customHeight="1">
       <c r="A27" s="68"/>
@@ -4947,22 +4947,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{688D9660-F982-E440-B8DB-8E4CDAF396B8}"/>
@@ -17381,8 +17381,8 @@
   </sheetPr>
   <dimension ref="A1:CM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="13"/>
@@ -17663,7 +17663,7 @@
       <c r="A4" s="53"/>
       <c r="B4" s="54" t="str">
         <f>CONCATENATE(C4, D4,"-", E4)</f>
-        <v>ar5ir3box-CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>ar5ir3box-CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C4" t="s">
         <v>1203</v>
@@ -17672,7 +17672,7 @@
         <v>1208</v>
       </c>
       <c r="E4" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="F4">
         <v>3.8883829331771498</v>
@@ -17682,7 +17682,7 @@
       </c>
       <c r="H4" s="28" t="str">
         <f>"Model configuration tuned to "&amp;E4</f>
-        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>1205</v>
@@ -17696,16 +17696,16 @@
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="str">
         <f t="shared" ref="B5:B35" si="0">CONCATENATE(C5, ",", D5, ",", E5)</f>
-        <v>ar5ir,2box,CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C5" t="s">
         <v>1203</v>
       </c>
       <c r="D5" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="F5">
         <v>4.6604314677678502</v>
@@ -17714,8 +17714,8 @@
         <v>1.65823136256026</v>
       </c>
       <c r="H5" s="28" t="str">
-        <f t="shared" ref="H5:K35" si="1">"Model configuration tuned to "&amp;E5</f>
-        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+        <f t="shared" ref="H5:H35" si="1">"Model configuration tuned to "&amp;E5</f>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="J5" s="28" t="str">
         <f>J4</f>
@@ -17731,7 +17731,7 @@
       <c r="A6" s="53"/>
       <c r="B6" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C6" t="s">
         <v>1203</v>
@@ -17740,7 +17740,7 @@
         <v>1204</v>
       </c>
       <c r="E6" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="F6">
         <v>4.7749213573198501</v>
@@ -17750,7 +17750,7 @@
       </c>
       <c r="H6" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
       </c>
       <c r="J6" s="28" t="str">
         <f t="shared" ref="J6:J35" si="2">J5</f>
@@ -17766,7 +17766,7 @@
       <c r="A7" s="53"/>
       <c r="B7" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C7" t="s">
         <v>1203</v>
@@ -17775,7 +17775,7 @@
         <v>1208</v>
       </c>
       <c r="E7" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="F7">
         <v>4.8676924657394203</v>
@@ -17785,7 +17785,7 @@
       </c>
       <c r="H7" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
       </c>
       <c r="J7" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17801,7 +17801,7 @@
       <c r="A8" s="53"/>
       <c r="B8" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C8" t="s">
         <v>1203</v>
@@ -17810,7 +17810,7 @@
         <v>1208</v>
       </c>
       <c r="E8" t="s">
-        <v>1211</v>
+        <v>1220</v>
       </c>
       <c r="F8">
         <v>5.6400004762161302</v>
@@ -17820,7 +17820,7 @@
       </c>
       <c r="H8" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="J8" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17871,16 +17871,16 @@
       <c r="A10" s="53"/>
       <c r="B10" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C10" t="s">
         <v>1203</v>
       </c>
       <c r="D10" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E10" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="F10">
         <v>5.9849619111386696</v>
@@ -17890,7 +17890,7 @@
       </c>
       <c r="H10" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="J10" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17906,7 +17906,7 @@
       <c r="A11" s="53"/>
       <c r="B11" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C11" t="s">
         <v>1203</v>
@@ -17915,7 +17915,7 @@
         <v>1204</v>
       </c>
       <c r="E11" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="F11">
         <v>6.15826724672542</v>
@@ -17925,7 +17925,7 @@
       </c>
       <c r="H11" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="J11" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17941,7 +17941,7 @@
       <c r="A12" s="53"/>
       <c r="B12" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>ar5ir,2box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C12" t="s">
         <v>1203</v>
@@ -17950,7 +17950,7 @@
         <v>1204</v>
       </c>
       <c r="E12" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="F12">
         <v>6.1648418835021896</v>
@@ -17960,7 +17960,7 @@
       </c>
       <c r="H12" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="J12" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17976,7 +17976,7 @@
       <c r="A13" s="53"/>
       <c r="B13" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>ar5ir,3box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C13" t="s">
         <v>1203</v>
@@ -17985,7 +17985,7 @@
         <v>1208</v>
       </c>
       <c r="E13" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F13">
         <v>6.6063084373020704</v>
@@ -17995,7 +17995,7 @@
       </c>
       <c r="H13" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="J13" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18011,7 +18011,7 @@
       <c r="A14" s="38"/>
       <c r="B14" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C14" t="s">
         <v>1203</v>
@@ -18020,7 +18020,7 @@
         <v>1208</v>
       </c>
       <c r="E14" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="F14">
         <v>6.7808043875969304</v>
@@ -18030,7 +18030,7 @@
       </c>
       <c r="H14" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J14" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18045,7 +18045,7 @@
     <row r="15" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="B15" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CESM2_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C15" t="s">
         <v>1203</v>
@@ -18054,7 +18054,7 @@
         <v>1204</v>
       </c>
       <c r="E15" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="F15">
         <v>6.7975907508722999</v>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="H15" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CESM2_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J15" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18078,7 +18078,7 @@
     <row r="16" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="B16" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="C16" t="s">
         <v>1203</v>
@@ -18087,7 +18087,7 @@
         <v>1204</v>
       </c>
       <c r="E16" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="F16">
         <v>6.86884689256072</v>
@@ -18097,7 +18097,7 @@
       </c>
       <c r="H16" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="J16" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18111,7 +18111,7 @@
     <row r="17" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B17" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="C17" t="s">
         <v>1203</v>
@@ -18120,7 +18120,7 @@
         <v>1208</v>
       </c>
       <c r="E17" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="F17">
         <v>7.0265561916764101</v>
@@ -18130,7 +18130,7 @@
       </c>
       <c r="H17" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="J17" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18144,7 +18144,7 @@
     <row r="18" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B18" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C18" t="s">
         <v>1203</v>
@@ -18153,7 +18153,7 @@
         <v>1208</v>
       </c>
       <c r="E18" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F18">
         <v>7.1707996134210399</v>
@@ -18163,7 +18163,7 @@
       </c>
       <c r="H18" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J18" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18177,7 +18177,7 @@
     <row r="19" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B19" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C19" t="s">
         <v>1203</v>
@@ -18186,7 +18186,7 @@
         <v>1204</v>
       </c>
       <c r="E19" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F19">
         <v>7.4359428125203797</v>
@@ -18196,7 +18196,7 @@
       </c>
       <c r="H19" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J19" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18210,16 +18210,16 @@
     <row r="20" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B20" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C20" t="s">
         <v>1203</v>
       </c>
       <c r="D20" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E20" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="F20">
         <v>7.4897386925168199</v>
@@ -18229,7 +18229,7 @@
       </c>
       <c r="H20" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="J20" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18243,16 +18243,16 @@
     <row r="21" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B21" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CESM2_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="C21" t="s">
         <v>1203</v>
       </c>
       <c r="D21" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E21" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="F21">
         <v>7.8002326489343403</v>
@@ -18262,7 +18262,7 @@
       </c>
       <c r="H21" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CESM2_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="J21" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18276,16 +18276,16 @@
     <row r="22" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B22" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="C22" t="s">
         <v>1203</v>
       </c>
       <c r="D22" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E22" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="F22">
         <v>7.9858149852556002</v>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="H22" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="J22" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18309,7 +18309,7 @@
     <row r="23" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B23" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C23" t="s">
         <v>1203</v>
@@ -18318,7 +18318,7 @@
         <v>1208</v>
       </c>
       <c r="E23" t="s">
-        <v>1210</v>
+        <v>1224</v>
       </c>
       <c r="F23">
         <v>8.23432269905312</v>
@@ -18328,7 +18328,7 @@
       </c>
       <c r="H23" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="J23" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18342,16 +18342,16 @@
     <row r="24" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B24" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="C24" t="s">
         <v>1203</v>
       </c>
       <c r="D24" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E24" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="F24">
         <v>8.3803876364999894</v>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="H24" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="J24" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18375,7 +18375,7 @@
     <row r="25" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B25" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="C25" t="s">
         <v>1203</v>
@@ -18384,7 +18384,7 @@
         <v>1204</v>
       </c>
       <c r="E25" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="F25">
         <v>8.5042228866140697</v>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="H25" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="J25" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18408,7 +18408,7 @@
     <row r="26" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B26" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="C26" t="s">
         <v>1203</v>
@@ -18417,7 +18417,7 @@
         <v>1208</v>
       </c>
       <c r="E26" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="F26">
         <v>8.8187245100804397</v>
@@ -18427,7 +18427,7 @@
       </c>
       <c r="H26" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="J26" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18474,7 +18474,7 @@
     <row r="28" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B28" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C28" t="s">
         <v>1203</v>
@@ -18483,7 +18483,7 @@
         <v>1204</v>
       </c>
       <c r="E28" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="F28">
         <v>10.051406813280201</v>
@@ -18493,7 +18493,7 @@
       </c>
       <c r="H28" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J28" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18507,16 +18507,16 @@
     <row r="29" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B29" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
       </c>
       <c r="C29" t="s">
         <v>1203</v>
       </c>
       <c r="D29" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E29" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="F29">
         <v>10.324524704285899</v>
@@ -18526,7 +18526,7 @@
       </c>
       <c r="H29" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
       </c>
       <c r="J29" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18540,7 +18540,7 @@
     <row r="30" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B30" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
       </c>
       <c r="C30" t="s">
         <v>1203</v>
@@ -18549,7 +18549,7 @@
         <v>1204</v>
       </c>
       <c r="E30" t="s">
-        <v>1209</v>
+        <v>1219</v>
       </c>
       <c r="F30">
         <v>10.541577456198601</v>
@@ -18559,7 +18559,7 @@
       </c>
       <c r="H30" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
       </c>
       <c r="J30" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18573,7 +18573,7 @@
     <row r="31" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B31" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C31" t="s">
         <v>1203</v>
@@ -18582,7 +18582,7 @@
         <v>1208</v>
       </c>
       <c r="E31" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="F31">
         <v>11.081261663595701</v>
@@ -18592,7 +18592,7 @@
       </c>
       <c r="H31" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J31" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18606,7 +18606,7 @@
     <row r="32" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B32" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
       </c>
       <c r="C32" t="s">
         <v>1203</v>
@@ -18615,7 +18615,7 @@
         <v>1208</v>
       </c>
       <c r="E32" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="F32">
         <v>11.121920885669599</v>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="H32" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
       </c>
       <c r="J32" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18639,16 +18639,16 @@
     <row r="33" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B33" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
       </c>
       <c r="C33" t="s">
         <v>1203</v>
       </c>
       <c r="D33" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E33" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F33">
         <v>11.3932405906894</v>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="H33" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
       </c>
       <c r="J33" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18672,7 +18672,7 @@
     <row r="34" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B34" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
       </c>
       <c r="C34" t="s">
         <v>1203</v>
@@ -18681,7 +18681,7 @@
         <v>1208</v>
       </c>
       <c r="E34" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="F34">
         <v>11.487074387838099</v>
@@ -18691,7 +18691,7 @@
       </c>
       <c r="H34" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
       </c>
       <c r="J34" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18705,7 +18705,7 @@
     <row r="35" spans="2:11" ht="36.75" customHeight="1">
       <c r="B35" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
       </c>
       <c r="C35" t="s">
         <v>1203</v>
@@ -18714,7 +18714,7 @@
         <v>1204</v>
       </c>
       <c r="E35" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="F35">
         <v>12.142995499498401</v>
@@ -18724,7 +18724,7 @@
       </c>
       <c r="H35" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
       </c>
       <c r="J35" s="28" t="str">
         <f t="shared" si="2"/>

--- a/notebooks/rcmip-data-submission-template-ar5ir.xlsx
+++ b/notebooks/rcmip-data-submission-template-ar5ir.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A8E198-ED6C-2445-AE31-57EF8ECA9567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA983CA-A05D-0A4F-A822-C8EE36661313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1226">
   <si>
     <t>Category</t>
   </si>
@@ -3789,6 +3789,9 @@
   </si>
   <si>
     <t>CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</t>
+  </si>
+  <si>
+    <t>ECS-3K</t>
   </si>
 </sst>
 </file>
@@ -17381,9 +17384,7 @@
   </sheetPr>
   <dimension ref="A1:CM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="13"/>
   <cols>
@@ -17663,26 +17664,26 @@
       <c r="A4" s="53"/>
       <c r="B4" s="54" t="str">
         <f>CONCATENATE(C4, D4,"-", E4)</f>
-        <v>ar5ir3box-CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+        <v>ar5ir2box-ECS-3K</v>
       </c>
       <c r="C4" t="s">
         <v>1203</v>
       </c>
       <c r="D4" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E4" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="F4">
-        <v>3.8883829331771498</v>
+        <v>2.992</v>
       </c>
       <c r="G4">
-        <v>1.9208970104027601</v>
+        <v>2.06925197419908</v>
       </c>
       <c r="H4" s="28" t="str">
         <f>"Model configuration tuned to "&amp;E4</f>
-        <v>Model configuration tuned to CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to ECS-3K</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>1205</v>
@@ -17695,8 +17696,8 @@
     <row r="5" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="str">
-        <f t="shared" ref="B5:B35" si="0">CONCATENATE(C5, ",", D5, ",", E5)</f>
-        <v>ar5ir,3box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <f t="shared" ref="B5:B37" si="0">CONCATENATE(C5, ",", D5, ",", E5)</f>
+        <v>ar5ir,3box,ECS-3K</v>
       </c>
       <c r="C5" t="s">
         <v>1203</v>
@@ -17705,17 +17706,17 @@
         <v>1208</v>
       </c>
       <c r="E5" t="s">
-        <v>1217</v>
+        <v>1225</v>
       </c>
       <c r="F5">
-        <v>4.6604314677678502</v>
+        <v>2.992</v>
       </c>
       <c r="G5">
-        <v>1.65823136256026</v>
+        <v>2.1929936881334799</v>
       </c>
       <c r="H5" s="28" t="str">
-        <f t="shared" ref="H5:H35" si="1">"Model configuration tuned to "&amp;E5</f>
-        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <f t="shared" ref="H5:H37" si="1">"Model configuration tuned to "&amp;E5</f>
+        <v>Model configuration tuned to ECS-3K</v>
       </c>
       <c r="J5" s="28" t="str">
         <f>J4</f>
@@ -17731,7 +17732,7 @@
       <c r="A6" s="53"/>
       <c r="B6" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C6" t="s">
         <v>1203</v>
@@ -17740,24 +17741,24 @@
         <v>1204</v>
       </c>
       <c r="E6" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="F6">
-        <v>4.7749213573198501</v>
+        <v>7.3484233453979204</v>
       </c>
       <c r="G6">
-        <v>1.6458078758072401</v>
+        <v>1.92515243525194</v>
       </c>
       <c r="H6" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J6" s="28" t="str">
-        <f t="shared" ref="J6:J35" si="2">J5</f>
+        <f t="shared" ref="J6:J37" si="2">J5</f>
         <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
       </c>
       <c r="K6" s="30" t="str">
-        <f t="shared" ref="K6:K35" si="3">K5</f>
+        <f t="shared" ref="K6:K37" si="3">K5</f>
         <v>AR5 WG1 Ch.8 SM</v>
       </c>
       <c r="L6" s="32"/>
@@ -17766,26 +17767,26 @@
       <c r="A7" s="53"/>
       <c r="B7" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C7" t="s">
         <v>1203</v>
       </c>
       <c r="D7" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E7" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="F7">
-        <v>4.8676924657394203</v>
+        <v>15.298255293919899</v>
       </c>
       <c r="G7">
-        <v>1.7327607978922901</v>
+        <v>1.8325969909875901</v>
       </c>
       <c r="H7" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="J7" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17801,26 +17802,26 @@
       <c r="A8" s="53"/>
       <c r="B8" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C8" t="s">
         <v>1203</v>
       </c>
       <c r="D8" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E8" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="F8">
-        <v>5.6400004762161302</v>
+        <v>4.6383329518360004</v>
       </c>
       <c r="G8">
-        <v>1.90788994550314</v>
+        <v>2.2237921821689302</v>
       </c>
       <c r="H8" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="J8" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17836,7 +17837,7 @@
       <c r="A9" s="53"/>
       <c r="B9" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="C9" t="s">
         <v>1203</v>
@@ -17845,17 +17846,17 @@
         <v>1204</v>
       </c>
       <c r="E9" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="F9">
-        <v>5.7544858730519701</v>
+        <v>5.3979711341104002</v>
       </c>
       <c r="G9">
-        <v>1.5786320593465899</v>
+        <v>2.37905354300025</v>
       </c>
       <c r="H9" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="J9" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17871,7 +17872,7 @@
       <c r="A10" s="53"/>
       <c r="B10" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="C10" t="s">
         <v>1203</v>
@@ -17880,17 +17881,17 @@
         <v>1204</v>
       </c>
       <c r="E10" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="F10">
-        <v>5.9849619111386696</v>
+        <v>8.1290947789614592</v>
       </c>
       <c r="G10">
-        <v>2.56750747873533</v>
+        <v>2.3996016020233899</v>
       </c>
       <c r="H10" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="J10" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17906,7 +17907,7 @@
       <c r="A11" s="53"/>
       <c r="B11" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="C11" t="s">
         <v>1203</v>
@@ -17915,17 +17916,17 @@
         <v>1204</v>
       </c>
       <c r="E11" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F11">
-        <v>6.15826724672542</v>
+        <v>8.2189502610179694</v>
       </c>
       <c r="G11">
-        <v>1.84105608530307</v>
+        <v>2.23622944384873</v>
       </c>
       <c r="H11" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="J11" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17941,7 +17942,7 @@
       <c r="A12" s="53"/>
       <c r="B12" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
       </c>
       <c r="C12" t="s">
         <v>1203</v>
@@ -17950,17 +17951,17 @@
         <v>1204</v>
       </c>
       <c r="E12" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="F12">
-        <v>6.1648418835021896</v>
+        <v>5.2355951793584001</v>
       </c>
       <c r="G12">
-        <v>2.77964097721043</v>
+        <v>2.8501811905871999</v>
       </c>
       <c r="H12" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
       </c>
       <c r="J12" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17976,26 +17977,26 @@
       <c r="A13" s="53"/>
       <c r="B13" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
       </c>
       <c r="C13" t="s">
         <v>1203</v>
       </c>
       <c r="D13" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E13" t="s">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="F13">
-        <v>6.6063084373020704</v>
+        <v>15.908951471785899</v>
       </c>
       <c r="G13">
-        <v>2.22838284355496</v>
+        <v>2.63036743165426</v>
       </c>
       <c r="H13" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
       </c>
       <c r="J13" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18011,26 +18012,26 @@
       <c r="A14" s="38"/>
       <c r="B14" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C14" t="s">
         <v>1203</v>
       </c>
       <c r="D14" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E14" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="F14">
-        <v>6.7808043875969304</v>
+        <v>5.2388983939601896</v>
       </c>
       <c r="G14">
-        <v>1.5018336488069499</v>
+        <v>1.7329050551882601</v>
       </c>
       <c r="H14" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="J14" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18045,7 +18046,7 @@
     <row r="15" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="B15" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="C15" t="s">
         <v>1203</v>
@@ -18054,17 +18055,17 @@
         <v>1204</v>
       </c>
       <c r="E15" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F15">
-        <v>6.7975907508722999</v>
+        <v>16.676179262476399</v>
       </c>
       <c r="G15">
-        <v>1.9159176016136701</v>
+        <v>1.9062682649690801</v>
       </c>
       <c r="H15" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="J15" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18078,7 +18079,7 @@
     <row r="16" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="B16" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C16" t="s">
         <v>1203</v>
@@ -18087,17 +18088,17 @@
         <v>1204</v>
       </c>
       <c r="E16" t="s">
-        <v>1211</v>
+        <v>1221</v>
       </c>
       <c r="F16">
-        <v>6.86884689256072</v>
+        <v>3.7033722822287398</v>
       </c>
       <c r="G16">
-        <v>2.3095936378866702</v>
+        <v>1.6556011325289799</v>
       </c>
       <c r="H16" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="J16" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18111,26 +18112,26 @@
     <row r="17" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B17" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C17" t="s">
         <v>1203</v>
       </c>
       <c r="D17" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E17" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="F17">
-        <v>7.0265561916764101</v>
+        <v>13.569583760527401</v>
       </c>
       <c r="G17">
-        <v>1.69960479936043</v>
+        <v>2.5058283329328699</v>
       </c>
       <c r="H17" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J17" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18144,26 +18145,26 @@
     <row r="18" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B18" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C18" t="s">
         <v>1203</v>
       </c>
       <c r="D18" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E18" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="F18">
-        <v>7.1707996134210399</v>
+        <v>8.0183130287260909</v>
       </c>
       <c r="G18">
-        <v>1.8461789270732401</v>
+        <v>1.8464399568584999</v>
       </c>
       <c r="H18" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J18" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18177,7 +18178,7 @@
     <row r="19" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B19" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C19" t="s">
         <v>1203</v>
@@ -18186,17 +18187,17 @@
         <v>1204</v>
       </c>
       <c r="E19" t="s">
-        <v>1209</v>
+        <v>1220</v>
       </c>
       <c r="F19">
-        <v>7.4359428125203797</v>
+        <v>7.2376636605963904</v>
       </c>
       <c r="G19">
-        <v>1.8462748525833901</v>
+        <v>1.69888547776694</v>
       </c>
       <c r="H19" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="J19" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18210,7 +18211,7 @@
     <row r="20" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B20" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+        <v>ar5ir,2box,CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C20" t="s">
         <v>1203</v>
@@ -18219,17 +18220,17 @@
         <v>1204</v>
       </c>
       <c r="E20" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F20">
-        <v>7.4897386925168199</v>
+        <v>13.372198117051401</v>
       </c>
       <c r="G20">
-        <v>2.7807782105611798</v>
+        <v>1.56033724667033</v>
       </c>
       <c r="H20" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
       </c>
       <c r="J20" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18243,7 +18244,7 @@
     <row r="21" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B21" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>ar5ir,2box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
       </c>
       <c r="C21" t="s">
         <v>1203</v>
@@ -18252,17 +18253,17 @@
         <v>1204</v>
       </c>
       <c r="E21" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="F21">
-        <v>7.8002326489343403</v>
+        <v>16.9166502819293</v>
       </c>
       <c r="G21">
-        <v>2.6353449263897999</v>
+        <v>2.88242203911298</v>
       </c>
       <c r="H21" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
       </c>
       <c r="J21" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18276,7 +18277,7 @@
     <row r="22" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B22" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>ar5ir,3box,CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C22" t="s">
         <v>1203</v>
@@ -18285,17 +18286,17 @@
         <v>1208</v>
       </c>
       <c r="E22" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="F22">
-        <v>7.9858149852556002</v>
+        <v>7.7772635221303803</v>
       </c>
       <c r="G22">
-        <v>2.2904223860864299</v>
+        <v>1.91517643770951</v>
       </c>
       <c r="H22" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J22" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18309,7 +18310,7 @@
     <row r="23" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B23" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C23" t="s">
         <v>1203</v>
@@ -18318,17 +18319,17 @@
         <v>1208</v>
       </c>
       <c r="E23" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="F23">
-        <v>8.23432269905312</v>
+        <v>8.0562218053625099</v>
       </c>
       <c r="G23">
-        <v>1.81377275062766</v>
+        <v>1.83716716580602</v>
       </c>
       <c r="H23" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="J23" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18342,7 +18343,7 @@
     <row r="24" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B24" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CESM2_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C24" t="s">
         <v>1203</v>
@@ -18351,17 +18352,17 @@
         <v>1208</v>
       </c>
       <c r="E24" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F24">
-        <v>8.3803876364999894</v>
+        <v>13.4243640553892</v>
       </c>
       <c r="G24">
-        <v>2.22681989607229</v>
+        <v>2.2459127414780502</v>
       </c>
       <c r="H24" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CESM2_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="J24" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18375,22 +18376,22 @@
     <row r="25" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B25" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CESM2_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="C25" t="s">
         <v>1203</v>
       </c>
       <c r="D25" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E25" t="s">
         <v>1223</v>
       </c>
       <c r="F25">
-        <v>8.5042228866140697</v>
+        <v>8.3090052848392908</v>
       </c>
       <c r="G25">
-        <v>1.60118864510188</v>
+        <v>2.3575234866730899</v>
       </c>
       <c r="H25" s="28" t="str">
         <f t="shared" si="1"/>
@@ -18420,10 +18421,10 @@
         <v>1213</v>
       </c>
       <c r="F26">
-        <v>8.8187245100804397</v>
+        <v>9.1167840795780197</v>
       </c>
       <c r="G26">
-        <v>1.51316220722272</v>
+        <v>2.39539196793163</v>
       </c>
       <c r="H26" s="28" t="str">
         <f t="shared" si="1"/>
@@ -18441,26 +18442,26 @@
     <row r="27" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B27" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="C27" t="s">
         <v>1203</v>
       </c>
       <c r="D27" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E27" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="F27">
-        <v>9.8651644421965798</v>
+        <v>12.1781501868865</v>
       </c>
       <c r="G27">
-        <v>2.52472104840722</v>
+        <v>2.2366736891974099</v>
       </c>
       <c r="H27" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="J27" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18474,26 +18475,26 @@
     <row r="28" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B28" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
       </c>
       <c r="C28" t="s">
         <v>1203</v>
       </c>
       <c r="D28" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E28" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F28">
-        <v>10.051406813280201</v>
+        <v>11.824380584858</v>
       </c>
       <c r="G28">
-        <v>1.9103133233887899</v>
+        <v>2.85731693157549</v>
       </c>
       <c r="H28" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
       </c>
       <c r="J28" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18519,10 +18520,10 @@
         <v>1219</v>
       </c>
       <c r="F29">
-        <v>10.324524704285899</v>
+        <v>8.3226533525584596</v>
       </c>
       <c r="G29">
-        <v>2.8582182087247001</v>
+        <v>2.5435661692617701</v>
       </c>
       <c r="H29" s="28" t="str">
         <f t="shared" si="1"/>
@@ -18540,26 +18541,26 @@
     <row r="30" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B30" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C30" t="s">
         <v>1203</v>
       </c>
       <c r="D30" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E30" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F30">
-        <v>10.541577456198601</v>
+        <v>18.9848511390502</v>
       </c>
       <c r="G30">
-        <v>1.9463318253605699</v>
+        <v>1.3179418966444101</v>
       </c>
       <c r="H30" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="J30" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18573,7 +18574,7 @@
     <row r="31" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B31" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="C31" t="s">
         <v>1203</v>
@@ -18582,17 +18583,17 @@
         <v>1208</v>
       </c>
       <c r="E31" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="F31">
-        <v>11.081261663595701</v>
+        <v>8.0545461137078895</v>
       </c>
       <c r="G31">
-        <v>2.5503548725385801</v>
+        <v>1.90974455654996</v>
       </c>
       <c r="H31" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="J31" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18606,7 +18607,7 @@
     <row r="32" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B32" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>ar5ir,3box,CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C32" t="s">
         <v>1203</v>
@@ -18615,17 +18616,17 @@
         <v>1208</v>
       </c>
       <c r="E32" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="F32">
-        <v>11.121920885669599</v>
+        <v>18.858431277947201</v>
       </c>
       <c r="G32">
-        <v>2.85597762214273</v>
+        <v>1.2561922732190101</v>
       </c>
       <c r="H32" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="J32" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18639,26 +18640,26 @@
     <row r="33" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B33" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C33" t="s">
         <v>1203</v>
       </c>
       <c r="D33" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E33" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F33">
-        <v>11.3932405906894</v>
+        <v>5.70919768515021</v>
       </c>
       <c r="G33">
-        <v>2.3995591367559701</v>
+        <v>2.7157794824203698</v>
       </c>
       <c r="H33" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J33" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18672,7 +18673,7 @@
     <row r="34" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B34" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,3box,CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>ar5ir,3box,CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C34" t="s">
         <v>1203</v>
@@ -18681,17 +18682,17 @@
         <v>1208</v>
       </c>
       <c r="E34" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F34">
-        <v>11.487074387838099</v>
+        <v>6.0784829230164004</v>
       </c>
       <c r="G34">
-        <v>2.2471400050820498</v>
+        <v>1.84547214708943</v>
       </c>
       <c r="H34" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J34" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18702,29 +18703,29 @@
         <v>AR5 WG1 Ch.8 SM</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="36.75" customHeight="1">
+    <row r="35" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B35" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>ar5ir,2box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>ar5ir,3box,CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C35" t="s">
         <v>1203</v>
       </c>
       <c r="D35" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E35" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="F35">
-        <v>12.142995499498401</v>
+        <v>8.6011480648714205</v>
       </c>
       <c r="G35">
-        <v>2.3713783208676902</v>
+        <v>1.6323590388450999</v>
       </c>
       <c r="H35" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="J35" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18735,8 +18736,72 @@
         <v>AR5 WG1 Ch.8 SM</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="36.75" customHeight="1"/>
-    <row r="37" spans="2:11" ht="36.75" customHeight="1"/>
+    <row r="36" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B36" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,3box,CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F36">
+        <v>12.483125126345699</v>
+      </c>
+      <c r="G36">
+        <v>1.57133677777812</v>
+      </c>
+      <c r="H36" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-NorESM2-LM_r1i1p1f1-CALIB</v>
+      </c>
+      <c r="J36" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K36" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="36.75" customHeight="1">
+      <c r="B37" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>ar5ir,3box,CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F37">
+        <v>7.2150705829123796</v>
+      </c>
+      <c r="G37">
+        <v>2.7835022898890198</v>
+      </c>
+      <c r="H37" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="J37" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K37" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>AR5 WG1 Ch.8 SM</v>
+      </c>
+    </row>
     <row r="38" spans="2:11" ht="36.75" customHeight="1"/>
     <row r="39" spans="2:11" ht="36.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="36.75" customHeight="1"/>

--- a/notebooks/rcmip-data-submission-template-ar5ir.xlsx
+++ b/notebooks/rcmip-data-submission-template-ar5ir.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA983CA-A05D-0A4F-A822-C8EE36661313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEB9A03-118C-9548-868C-274057B20595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4225,20 +4225,20 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4635,25 +4635,25 @@
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="35.75" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" spans="1:13" ht="61" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
@@ -4672,20 +4672,20 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:13" ht="6" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="76" t="s">
         <v>848</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -4699,8 +4699,8 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -4714,10 +4714,10 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="76" t="s">
         <v>992</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4731,8 +4731,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4746,10 +4746,10 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4763,8 +4763,8 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -4778,10 +4778,10 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="90" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="76" t="s">
         <v>628</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4810,10 +4810,10 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="80" t="s">
         <v>820</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="80"/>
     </row>
     <row r="17" spans="1:2" ht="26.25" customHeight="1">
       <c r="A17" s="69" t="s">
@@ -4836,10 +4836,10 @@
       <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="76"/>
     </row>
     <row r="21" spans="1:2" ht="27.75" customHeight="1">
       <c r="A21" s="72"/>
@@ -4852,10 +4852,10 @@
       <c r="B22" s="72"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="76" t="s">
         <v>1176</v>
       </c>
-      <c r="B23" s="78"/>
+      <c r="B23" s="76"/>
     </row>
     <row r="24" spans="1:2" ht="27.75" customHeight="1">
       <c r="A24" s="68"/>
@@ -4868,10 +4868,10 @@
       <c r="B25" s="68"/>
     </row>
     <row r="26" spans="1:2" ht="88" customHeight="1">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="76" t="s">
         <v>1032</v>
       </c>
-      <c r="B26" s="78"/>
+      <c r="B26" s="76"/>
     </row>
     <row r="27" spans="1:2" ht="27.75" customHeight="1">
       <c r="A27" s="68"/>
@@ -4950,22 +4950,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{688D9660-F982-E440-B8DB-8E4CDAF396B8}"/>
@@ -17384,7 +17384,9 @@
   </sheetPr>
   <dimension ref="A1:CM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="13"/>
   <cols>
@@ -18652,10 +18654,10 @@
         <v>1216</v>
       </c>
       <c r="F33">
-        <v>5.70919768515021</v>
+        <v>4.98719465813305</v>
       </c>
       <c r="G33">
-        <v>2.7157794824203698</v>
+        <v>2.4632902876584</v>
       </c>
       <c r="H33" s="28" t="str">
         <f t="shared" si="1"/>
